--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward34_impedance.xlsx
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480241</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835045</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566905</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.164375088590669E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -719,55 +719,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.32439447418576</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.9526279647838862</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872186</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-5.561112244386752E-11</v>
+        <v>-8.692679414161542E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224353</v>
+        <v>0.9526279646671956</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965611</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.457819991245676E-10</v>
       </c>
       <c r="R3">
-        <v>-74.9300013442577</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404243</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.9526279649233322</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564906685982061E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.910066833103</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315003</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037946790919374E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315003</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322561</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.03794678975963E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
   </sheetData>
@@ -1086,55 +1086,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.164034195841091</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="D2">
-        <v>4.164034195841091</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.4516890272027</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="G2">
-        <v>264.4516890272027</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.32439447418576</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>1.024641882834442</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2676742560808691</v>
+        <v>0.2400406982758471</v>
       </c>
       <c r="P2">
-        <v>0.8949490735344907</v>
+        <v>0.8960735769153693</v>
       </c>
       <c r="Q2">
-        <v>6.545810733042246</v>
+        <v>5.766209884997127</v>
       </c>
       <c r="R2">
-        <v>-119.2198980305553</v>
+        <v>-121.3466079962483</v>
       </c>
       <c r="S2">
-        <v>172.5004903485669</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9794844981017322</v>
+        <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.7611597643616359</v>
+        <v>0.240040698163019</v>
       </c>
       <c r="P3">
-        <v>1.070183297417305</v>
+        <v>0.8960735770061726</v>
       </c>
       <c r="Q3">
-        <v>22.66519022127846</v>
+        <v>5.766209884977199</v>
       </c>
       <c r="R3">
-        <v>-82.63495878488919</v>
+        <v>-121.3466079609364</v>
       </c>
       <c r="S3">
-        <v>159.3482364747526</v>
+        <v>173.4315681785683</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05797793025859</v>
+        <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.9854968213790727</v>
+        <v>0.2400406981651697</v>
       </c>
       <c r="P4">
-        <v>1.086869251672576</v>
+        <v>0.8960735770323209</v>
       </c>
       <c r="Q4">
-        <v>27.74205110167883</v>
+        <v>5.766209886018095</v>
       </c>
       <c r="R4">
-        <v>-88.10871615027402</v>
+        <v>-121.3466079469509</v>
       </c>
       <c r="S4">
-        <v>153.0560938872236</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023840584</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658866</v>
       </c>
       <c r="P5">
-        <v>1.100000023817827</v>
+        <v>0.896073577041037</v>
       </c>
       <c r="Q5">
-        <v>29.99999999841987</v>
+        <v>5.766209886365058</v>
       </c>
       <c r="R5">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422891</v>
       </c>
       <c r="S5">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023840584</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658866</v>
       </c>
       <c r="P6">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410371</v>
       </c>
       <c r="Q6">
-        <v>29.99999999841987</v>
+        <v>5.766209886365061</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136507</v>
+        <v>-121.346607942289</v>
       </c>
       <c r="S6">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1453,55 +1453,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.164034195841091</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="D2">
-        <v>4.164034195841091</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.4516890272027</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="G2">
-        <v>264.4516890272027</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.32439447418576</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>1.024641882834442</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2676742560808691</v>
+        <v>0.2400406982758471</v>
       </c>
       <c r="P2">
-        <v>0.8949490735344907</v>
+        <v>0.8960735769153693</v>
       </c>
       <c r="Q2">
-        <v>6.545810733042246</v>
+        <v>5.766209884997127</v>
       </c>
       <c r="R2">
-        <v>-119.2198980305553</v>
+        <v>-121.3466079962483</v>
       </c>
       <c r="S2">
-        <v>172.5004903485669</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9794844981017322</v>
+        <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.7611597643616359</v>
+        <v>0.240040698163019</v>
       </c>
       <c r="P3">
-        <v>1.070183297417305</v>
+        <v>0.8960735770061726</v>
       </c>
       <c r="Q3">
-        <v>22.66519022127846</v>
+        <v>5.766209884977199</v>
       </c>
       <c r="R3">
-        <v>-82.63495878488919</v>
+        <v>-121.3466079609364</v>
       </c>
       <c r="S3">
-        <v>159.3482364747526</v>
+        <v>173.4315681785683</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05797793025859</v>
+        <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.9854968213790727</v>
+        <v>0.2400406981651697</v>
       </c>
       <c r="P4">
-        <v>1.086869251672576</v>
+        <v>0.8960735770323209</v>
       </c>
       <c r="Q4">
-        <v>27.74205110167883</v>
+        <v>5.766209886018095</v>
       </c>
       <c r="R4">
-        <v>-88.10871615027402</v>
+        <v>-121.3466079469509</v>
       </c>
       <c r="S4">
-        <v>153.0560938872236</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023840584</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658866</v>
       </c>
       <c r="P5">
-        <v>1.100000023817827</v>
+        <v>0.896073577041037</v>
       </c>
       <c r="Q5">
-        <v>29.99999999841987</v>
+        <v>5.766209886365058</v>
       </c>
       <c r="R5">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422891</v>
       </c>
       <c r="S5">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023840584</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658866</v>
       </c>
       <c r="P6">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410371</v>
       </c>
       <c r="Q6">
-        <v>29.99999999841987</v>
+        <v>5.766209886365061</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136507</v>
+        <v>-121.346607942289</v>
       </c>
       <c r="S6">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1820,55 +1820,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264774</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>4.162140379264774</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210882</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>264.3314155210882</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246257</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848564</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854863</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467502929129504E-10</v>
+        <v>1.71998533053445E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429902</v>
+        <v>0.8660254036789676</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.8660254038905275</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.107183603276672E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696508</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254918</v>
+        <v>0.8660254036546304</v>
       </c>
       <c r="O4">
-        <v>0.848912924145354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856682</v>
+        <v>3.135419194255636E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399414</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043655648314882E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043668746722647E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2187,55 +2187,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264774</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>4.162140379264774</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210882</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>264.3314155210882</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246257</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848564</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854863</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467502929129504E-10</v>
+        <v>1.71998533053445E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429902</v>
+        <v>0.8660254036789676</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.8660254038905275</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.107183603276672E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696508</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254918</v>
+        <v>0.8660254036546304</v>
       </c>
       <c r="O4">
-        <v>0.848912924145354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856682</v>
+        <v>3.135419194255636E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399414</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043655648314882E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043668746722647E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2554,55 +2554,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.394460119549792</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="D2">
-        <v>3.394460119549792</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="G2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246257</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9235249897284542</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.2182041608271528</v>
+        <v>0.1964063473242864</v>
       </c>
       <c r="P2">
-        <v>0.8190898126975767</v>
+        <v>0.8180121061818274</v>
       </c>
       <c r="Q2">
-        <v>5.942958698058124</v>
+        <v>5.173976904115785</v>
       </c>
       <c r="R2">
-        <v>-118.7854635782679</v>
+        <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>173.2960275321284</v>
+        <v>174.1659345853096</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8345382271144524</v>
+        <v>0.9220324943451749</v>
       </c>
       <c r="O3">
-        <v>0.6172174442856089</v>
+        <v>0.1964063472166734</v>
       </c>
       <c r="P3">
-        <v>0.9970078406183449</v>
+        <v>0.8180121062689185</v>
       </c>
       <c r="Q3">
-        <v>20.80455970630529</v>
+        <v>5.173976904114586</v>
       </c>
       <c r="R3">
-        <v>-73.83824973735305</v>
+        <v>-122.1449202549969</v>
       </c>
       <c r="S3">
-        <v>162.7043734966286</v>
+        <v>174.1659345864976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.942320322390786</v>
+        <v>0.9220324943235482</v>
       </c>
       <c r="O4">
-        <v>0.8661701609461681</v>
+        <v>0.1964063472443389</v>
       </c>
       <c r="P4">
-        <v>0.9935581431749088</v>
+        <v>0.8180121062966166</v>
       </c>
       <c r="Q4">
-        <v>27.29607780058892</v>
+        <v>5.173976906219924</v>
       </c>
       <c r="R4">
-        <v>-86.20908157863238</v>
+        <v>-122.1449202329784</v>
       </c>
       <c r="S4">
-        <v>154.2185691425461</v>
+        <v>174.1659345844574</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163393</v>
       </c>
       <c r="O5">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535608</v>
       </c>
       <c r="P5">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058493</v>
       </c>
       <c r="Q5">
-        <v>29.99999999855265</v>
+        <v>5.173976906921705</v>
       </c>
       <c r="R5">
-        <v>-90.00000000172975</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S5">
-        <v>150.0000000005734</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163393</v>
       </c>
       <c r="O6">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535609</v>
       </c>
       <c r="P6">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058493</v>
       </c>
       <c r="Q6">
-        <v>29.99999999855265</v>
+        <v>5.173976906921713</v>
       </c>
       <c r="R6">
-        <v>-90.00000000172975</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S6">
-        <v>150.0000000005734</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -2921,55 +2921,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.394460119549792</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="D2">
-        <v>3.394460119549792</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="G2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246257</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9235249897284542</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.2182041608271528</v>
+        <v>0.1964063473242864</v>
       </c>
       <c r="P2">
-        <v>0.8190898126975767</v>
+        <v>0.8180121061818274</v>
       </c>
       <c r="Q2">
-        <v>5.942958698058124</v>
+        <v>5.173976904115785</v>
       </c>
       <c r="R2">
-        <v>-118.7854635782679</v>
+        <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>173.2960275321284</v>
+        <v>174.1659345853096</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8345382271144524</v>
+        <v>0.9220324943451749</v>
       </c>
       <c r="O3">
-        <v>0.6172174442856089</v>
+        <v>0.1964063472166734</v>
       </c>
       <c r="P3">
-        <v>0.9970078406183449</v>
+        <v>0.8180121062689185</v>
       </c>
       <c r="Q3">
-        <v>20.80455970630529</v>
+        <v>5.173976904114586</v>
       </c>
       <c r="R3">
-        <v>-73.83824973735305</v>
+        <v>-122.1449202549969</v>
       </c>
       <c r="S3">
-        <v>162.7043734966286</v>
+        <v>174.1659345864976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.942320322390786</v>
+        <v>0.9220324943235482</v>
       </c>
       <c r="O4">
-        <v>0.8661701609461681</v>
+        <v>0.1964063472443389</v>
       </c>
       <c r="P4">
-        <v>0.9935581431749088</v>
+        <v>0.8180121062966166</v>
       </c>
       <c r="Q4">
-        <v>27.29607780058892</v>
+        <v>5.173976906219924</v>
       </c>
       <c r="R4">
-        <v>-86.20908157863238</v>
+        <v>-122.1449202329784</v>
       </c>
       <c r="S4">
-        <v>154.2185691425461</v>
+        <v>174.1659345844574</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163393</v>
       </c>
       <c r="O5">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535608</v>
       </c>
       <c r="P5">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058493</v>
       </c>
       <c r="Q5">
-        <v>29.99999999855265</v>
+        <v>5.173976906921705</v>
       </c>
       <c r="R5">
-        <v>-90.00000000172975</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S5">
-        <v>150.0000000005734</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163393</v>
       </c>
       <c r="O6">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535609</v>
       </c>
       <c r="P6">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058493</v>
       </c>
       <c r="Q6">
-        <v>29.99999999855265</v>
+        <v>5.173976906921713</v>
       </c>
       <c r="R6">
-        <v>-90.00000000172975</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S6">
-        <v>150.0000000005734</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.768166789883013</v>
+        <v>5.264364617711064</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>366.3277913756579</v>
+        <v>334.3320562062606</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3306,43 +3306,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.300764447633599</v>
+        <v>1.300764447633596</v>
       </c>
       <c r="I2">
-        <v>13.12643350248108</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.451153268858998</v>
+        <v>1.324394473164017</v>
       </c>
       <c r="K2">
-        <v>11.4816112091574</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.451153269621518</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6547065181132602</v>
+        <v>0.6343001104121933</v>
       </c>
       <c r="O2">
-        <v>1.100000023879093</v>
+        <v>1.100000023884799</v>
       </c>
       <c r="P2">
-        <v>0.6446545448202728</v>
+        <v>0.6339720469102066</v>
       </c>
       <c r="Q2">
-        <v>58.11815482056355</v>
+        <v>60.15738962477764</v>
       </c>
       <c r="R2">
-        <v>-90.00000000005096</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>122.4392414639277</v>
+        <v>119.8596212761358</v>
       </c>
       <c r="T2">
-        <v>5.768166789883014</v>
+        <v>5.264364617711064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9785995131901573</v>
+        <v>0.6343001105284112</v>
       </c>
       <c r="O3">
-        <v>1.100000023851489</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P3">
-        <v>0.8528513893575013</v>
+        <v>0.633972046799085</v>
       </c>
       <c r="Q3">
-        <v>41.98988721920058</v>
+        <v>60.15738963029998</v>
       </c>
       <c r="R3">
-        <v>-90.00000000036962</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>148.5233290047442</v>
+        <v>119.8596212824029</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.054596300967233</v>
+        <v>0.6343001105689012</v>
       </c>
       <c r="O4">
-        <v>1.100000023841629</v>
+        <v>1.100000023885134</v>
       </c>
       <c r="P4">
-        <v>1.017549107611877</v>
+        <v>0.6339720467858123</v>
       </c>
       <c r="Q4">
-        <v>33.68415223473925</v>
+        <v>60.15738962955151</v>
       </c>
       <c r="R4">
-        <v>-90.00000000012078</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
-        <v>149.587488418146</v>
+        <v>119.8596212859402</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023795754</v>
+        <v>0.6343001105823979</v>
       </c>
       <c r="O5">
-        <v>1.100000023836699</v>
+        <v>1.100000023885134</v>
       </c>
       <c r="P5">
-        <v>1.100000023807692</v>
+        <v>0.6339720467813883</v>
       </c>
       <c r="Q5">
-        <v>30.00000000051208</v>
+        <v>60.15738962930201</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S5">
-        <v>149.9999999984036</v>
+        <v>119.8596212871193</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023795754</v>
+        <v>0.6343001105823979</v>
       </c>
       <c r="O6">
-        <v>1.100000023836699</v>
+        <v>1.100000023885134</v>
       </c>
       <c r="P6">
-        <v>1.100000023807692</v>
+        <v>0.6339720467813882</v>
       </c>
       <c r="Q6">
-        <v>30.00000000051208</v>
+        <v>60.15738962930201</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S6">
-        <v>149.9999999984036</v>
+        <v>119.8596212871193</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.768166789883013</v>
+        <v>5.264364617711064</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>366.3277913756579</v>
+        <v>334.3320562062606</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3691,43 +3691,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.300764447633599</v>
+        <v>1.300764447633596</v>
       </c>
       <c r="I2">
-        <v>13.12643350248108</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.451153268858998</v>
+        <v>1.324394473164017</v>
       </c>
       <c r="K2">
-        <v>11.4816112091574</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.451153269621518</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6547065181132602</v>
+        <v>0.6343001104121933</v>
       </c>
       <c r="O2">
-        <v>1.100000023879093</v>
+        <v>1.100000023884799</v>
       </c>
       <c r="P2">
-        <v>0.6446545448202728</v>
+        <v>0.6339720469102066</v>
       </c>
       <c r="Q2">
-        <v>58.11815482056355</v>
+        <v>60.15738962477764</v>
       </c>
       <c r="R2">
-        <v>-90.00000000005096</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>122.4392414639277</v>
+        <v>119.8596212761358</v>
       </c>
       <c r="T2">
-        <v>5.768166789883014</v>
+        <v>5.264364617711064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9785995131901573</v>
+        <v>0.6343001105284112</v>
       </c>
       <c r="O3">
-        <v>1.100000023851489</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P3">
-        <v>0.8528513893575013</v>
+        <v>0.633972046799085</v>
       </c>
       <c r="Q3">
-        <v>41.98988721920058</v>
+        <v>60.15738963029998</v>
       </c>
       <c r="R3">
-        <v>-90.00000000036962</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>148.5233290047442</v>
+        <v>119.8596212824029</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.054596300967233</v>
+        <v>0.6343001105689012</v>
       </c>
       <c r="O4">
-        <v>1.100000023841629</v>
+        <v>1.100000023885134</v>
       </c>
       <c r="P4">
-        <v>1.017549107611877</v>
+        <v>0.6339720467858123</v>
       </c>
       <c r="Q4">
-        <v>33.68415223473925</v>
+        <v>60.15738962955151</v>
       </c>
       <c r="R4">
-        <v>-90.00000000012078</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
-        <v>149.587488418146</v>
+        <v>119.8596212859402</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023795754</v>
+        <v>0.6343001105823979</v>
       </c>
       <c r="O5">
-        <v>1.100000023836699</v>
+        <v>1.100000023885134</v>
       </c>
       <c r="P5">
-        <v>1.100000023807692</v>
+        <v>0.6339720467813883</v>
       </c>
       <c r="Q5">
-        <v>30.00000000051208</v>
+        <v>60.15738962930201</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S5">
-        <v>149.9999999984036</v>
+        <v>119.8596212871193</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023795754</v>
+        <v>0.6343001105823979</v>
       </c>
       <c r="O6">
-        <v>1.100000023836699</v>
+        <v>1.100000023885134</v>
       </c>
       <c r="P6">
-        <v>1.100000023807692</v>
+        <v>0.6339720467813882</v>
       </c>
       <c r="Q6">
-        <v>30.00000000051208</v>
+        <v>60.15738962930201</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S6">
-        <v>149.9999999984036</v>
+        <v>119.8596212871193</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.839876459005224</v>
+        <v>3.625393424248131</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>243.8649077987731</v>
+        <v>230.2434056348754</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4076,43 +4076,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.300764447633599</v>
+        <v>1.300764447633596</v>
       </c>
       <c r="I2">
-        <v>13.12643350248108</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.451153268858998</v>
+        <v>1.324394473164017</v>
       </c>
       <c r="K2">
-        <v>11.4816112091574</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.451153269621518</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.7221428777226349</v>
+        <v>0.6909829222610617</v>
       </c>
       <c r="O2">
-        <v>1.100000023868949</v>
+        <v>1.100000023874115</v>
       </c>
       <c r="P2">
-        <v>0.8528815234152033</v>
+        <v>0.837565973006243</v>
       </c>
       <c r="Q2">
-        <v>39.19857888073656</v>
+        <v>40.43431448130421</v>
       </c>
       <c r="R2">
-        <v>-90.00000000003398</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>131.0081309115409</v>
+        <v>128.8983448519719</v>
       </c>
       <c r="T2">
-        <v>3.839876459005224</v>
+        <v>3.625393424248132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9811444412470469</v>
+        <v>0.6909829223050237</v>
       </c>
       <c r="O3">
-        <v>1.100000023848919</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P3">
-        <v>0.9452155073263515</v>
+        <v>0.8375659729263019</v>
       </c>
       <c r="Q3">
-        <v>36.34418352539413</v>
+        <v>40.43431448785282</v>
       </c>
       <c r="R3">
-        <v>-90.00000000025253</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S3">
-        <v>146.7293599829253</v>
+        <v>128.8983448548237</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.058995483107377</v>
+        <v>0.6909829223314873</v>
       </c>
       <c r="O4">
-        <v>1.100000023842153</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P4">
-        <v>1.048046156821658</v>
+        <v>0.8375659729151189</v>
       </c>
       <c r="Q4">
-        <v>31.95564422545369</v>
+        <v>40.43431448872158</v>
       </c>
       <c r="R4">
-        <v>-90.00000000008174</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S4">
-        <v>149.0172403193341</v>
+        <v>128.8983448566142</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023810735</v>
+        <v>0.6909829223403084</v>
       </c>
       <c r="O5">
-        <v>1.10000002383877</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P5">
-        <v>1.100000023824932</v>
+        <v>0.8375659729113915</v>
       </c>
       <c r="Q5">
-        <v>29.99999999998797</v>
+        <v>40.43431448901116</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S5">
-        <v>149.9999999987239</v>
+        <v>128.898344857211</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023810735</v>
+        <v>0.6909829223403083</v>
       </c>
       <c r="O6">
-        <v>1.10000002383877</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P6">
-        <v>1.100000023824932</v>
+        <v>0.8375659729113912</v>
       </c>
       <c r="Q6">
-        <v>29.99999999998797</v>
+        <v>40.43431448901116</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999618</v>
       </c>
       <c r="S6">
-        <v>149.9999999987239</v>
+        <v>128.898344857211</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4404,22 +4404,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480241</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835045</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566905</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.164375088590669E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4594,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.839876459005224</v>
+        <v>3.625393424248131</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>243.8649077987731</v>
+        <v>230.2434056348754</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4612,43 +4612,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.300764447633599</v>
+        <v>1.300764447633596</v>
       </c>
       <c r="I2">
-        <v>13.12643350248108</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.451153268858998</v>
+        <v>1.324394473164017</v>
       </c>
       <c r="K2">
-        <v>11.4816112091574</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.451153269621518</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.7221428777226349</v>
+        <v>0.6909829222610617</v>
       </c>
       <c r="O2">
-        <v>1.100000023868949</v>
+        <v>1.100000023874115</v>
       </c>
       <c r="P2">
-        <v>0.8528815234152033</v>
+        <v>0.837565973006243</v>
       </c>
       <c r="Q2">
-        <v>39.19857888073656</v>
+        <v>40.43431448130421</v>
       </c>
       <c r="R2">
-        <v>-90.00000000003398</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>131.0081309115409</v>
+        <v>128.8983448519719</v>
       </c>
       <c r="T2">
-        <v>3.839876459005224</v>
+        <v>3.625393424248132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9811444412470469</v>
+        <v>0.6909829223050237</v>
       </c>
       <c r="O3">
-        <v>1.100000023848919</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P3">
-        <v>0.9452155073263515</v>
+        <v>0.8375659729263019</v>
       </c>
       <c r="Q3">
-        <v>36.34418352539413</v>
+        <v>40.43431448785282</v>
       </c>
       <c r="R3">
-        <v>-90.00000000025253</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S3">
-        <v>146.7293599829253</v>
+        <v>128.8983448548237</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.058995483107377</v>
+        <v>0.6909829223314873</v>
       </c>
       <c r="O4">
-        <v>1.100000023842153</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P4">
-        <v>1.048046156821658</v>
+        <v>0.8375659729151189</v>
       </c>
       <c r="Q4">
-        <v>31.95564422545369</v>
+        <v>40.43431448872158</v>
       </c>
       <c r="R4">
-        <v>-90.00000000008174</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S4">
-        <v>149.0172403193341</v>
+        <v>128.8983448566142</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023810735</v>
+        <v>0.6909829223403084</v>
       </c>
       <c r="O5">
-        <v>1.10000002383877</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P5">
-        <v>1.100000023824932</v>
+        <v>0.8375659729113915</v>
       </c>
       <c r="Q5">
-        <v>29.99999999998797</v>
+        <v>40.43431448901116</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S5">
-        <v>149.9999999987239</v>
+        <v>128.898344857211</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023810735</v>
+        <v>0.6909829223403083</v>
       </c>
       <c r="O6">
-        <v>1.10000002383877</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P6">
-        <v>1.100000023824932</v>
+        <v>0.8375659729113912</v>
       </c>
       <c r="Q6">
-        <v>29.99999999998797</v>
+        <v>40.43431448901116</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999618</v>
       </c>
       <c r="S6">
-        <v>149.9999999987239</v>
+        <v>128.898344857211</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.603693591719893</v>
+        <v>4.213192401619782</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>292.373810789064</v>
+        <v>267.5736543945154</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.474542044182676</v>
+        <v>1.474542044182674</v>
       </c>
       <c r="I2">
-        <v>14.8984075397507</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>2.024404383465329</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>13.05836749311474</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>13.05836749319937</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5993129457589587</v>
+        <v>0.5765401439822564</v>
       </c>
       <c r="O2">
-        <v>0.9999999999976871</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P2">
-        <v>0.5806200459831344</v>
+        <v>0.5762017952293779</v>
       </c>
       <c r="Q2">
-        <v>58.50547054855186</v>
+        <v>60.17868937655199</v>
       </c>
       <c r="R2">
-        <v>-89.99999999998764</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>122.6316606308716</v>
+        <v>119.8405974276078</v>
       </c>
       <c r="T2">
-        <v>4.603693591719892</v>
+        <v>4.213192401619781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8961560608944963</v>
+        <v>0.5765401440904327</v>
       </c>
       <c r="O3">
-        <v>0.9999999999948241</v>
+        <v>0.9999999999962973</v>
       </c>
       <c r="P3">
-        <v>0.7004464375684313</v>
+        <v>0.5762017951254224</v>
       </c>
       <c r="Q3">
-        <v>47.07769601312541</v>
+        <v>60.17868938223106</v>
       </c>
       <c r="R3">
-        <v>-89.99999999994743</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S3">
-        <v>150.6081702541155</v>
+        <v>119.8405974340221</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9562463970320868</v>
+        <v>0.576540144138617</v>
       </c>
       <c r="O4">
-        <v>0.9999999999956839</v>
+        <v>0.9999999999962973</v>
       </c>
       <c r="P4">
-        <v>0.9001390711069268</v>
+        <v>0.5762017951247251</v>
       </c>
       <c r="Q4">
-        <v>35.26360430047993</v>
+        <v>60.1786893795089</v>
       </c>
       <c r="R4">
-        <v>-89.99999999998005</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S4">
-        <v>150.1577471886329</v>
+        <v>119.8405974395331</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999616794</v>
+        <v>0.5765401441546784</v>
       </c>
       <c r="O5">
-        <v>0.9999999999961138</v>
+        <v>0.9999999999962973</v>
       </c>
       <c r="P5">
-        <v>0.9999999999778542</v>
+        <v>0.5762017951244927</v>
       </c>
       <c r="Q5">
-        <v>30.00000000006776</v>
+        <v>60.1786893786015</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S5">
-        <v>149.9999999983198</v>
+        <v>119.84059744137</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999616794</v>
+        <v>0.5765401441546786</v>
       </c>
       <c r="O6">
-        <v>0.9999999999961138</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P6">
-        <v>0.9999999999778542</v>
+        <v>0.5762017951244927</v>
       </c>
       <c r="Q6">
-        <v>30.00000000006776</v>
+        <v>60.1786893786015</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S6">
-        <v>149.9999999983198</v>
+        <v>119.84059744137</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.603693591719893</v>
+        <v>4.213192401619782</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>292.373810789064</v>
+        <v>267.5736543945154</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5382,43 +5382,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.474542044182676</v>
+        <v>1.474542044182674</v>
       </c>
       <c r="I2">
-        <v>14.8984075397507</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>2.024404383465329</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>13.05836749311474</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>13.05836749319937</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5993129457589587</v>
+        <v>0.5765401439822564</v>
       </c>
       <c r="O2">
-        <v>0.9999999999976871</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P2">
-        <v>0.5806200459831344</v>
+        <v>0.5762017952293779</v>
       </c>
       <c r="Q2">
-        <v>58.50547054855186</v>
+        <v>60.17868937655199</v>
       </c>
       <c r="R2">
-        <v>-89.99999999998764</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>122.6316606308716</v>
+        <v>119.8405974276078</v>
       </c>
       <c r="T2">
-        <v>4.603693591719892</v>
+        <v>4.213192401619781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8961560608944963</v>
+        <v>0.5765401440904327</v>
       </c>
       <c r="O3">
-        <v>0.9999999999948241</v>
+        <v>0.9999999999962973</v>
       </c>
       <c r="P3">
-        <v>0.7004464375684313</v>
+        <v>0.5762017951254224</v>
       </c>
       <c r="Q3">
-        <v>47.07769601312541</v>
+        <v>60.17868938223106</v>
       </c>
       <c r="R3">
-        <v>-89.99999999994743</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S3">
-        <v>150.6081702541155</v>
+        <v>119.8405974340221</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9562463970320868</v>
+        <v>0.576540144138617</v>
       </c>
       <c r="O4">
-        <v>0.9999999999956839</v>
+        <v>0.9999999999962973</v>
       </c>
       <c r="P4">
-        <v>0.9001390711069268</v>
+        <v>0.5762017951247251</v>
       </c>
       <c r="Q4">
-        <v>35.26360430047993</v>
+        <v>60.1786893795089</v>
       </c>
       <c r="R4">
-        <v>-89.99999999998005</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S4">
-        <v>150.1577471886329</v>
+        <v>119.8405974395331</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999616794</v>
+        <v>0.5765401441546784</v>
       </c>
       <c r="O5">
-        <v>0.9999999999961138</v>
+        <v>0.9999999999962973</v>
       </c>
       <c r="P5">
-        <v>0.9999999999778542</v>
+        <v>0.5762017951244927</v>
       </c>
       <c r="Q5">
-        <v>30.00000000006776</v>
+        <v>60.1786893786015</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S5">
-        <v>149.9999999983198</v>
+        <v>119.84059744137</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999616794</v>
+        <v>0.5765401441546786</v>
       </c>
       <c r="O6">
-        <v>0.9999999999961138</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P6">
-        <v>0.9999999999778542</v>
+        <v>0.5762017951244927</v>
       </c>
       <c r="Q6">
-        <v>30.00000000006776</v>
+        <v>60.1786893786015</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S6">
-        <v>149.9999999983198</v>
+        <v>119.84059744137</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.193707723220339</v>
+        <v>3.020245844266742</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>202.8276815085675</v>
+        <v>191.8113726326878</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5767,43 +5767,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.474542044182676</v>
+        <v>1.474542044182674</v>
       </c>
       <c r="I2">
-        <v>14.8984075397507</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>2.024404383465329</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>13.05836749311474</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>13.05836749319937</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.6483337318164268</v>
+        <v>0.6174917383880851</v>
       </c>
       <c r="O2">
-        <v>0.9999999999931086</v>
+        <v>0.9999999999908337</v>
       </c>
       <c r="P2">
-        <v>0.7555279089551701</v>
+        <v>0.7469662906422754</v>
       </c>
       <c r="Q2">
-        <v>40.93117198604291</v>
+        <v>41.81125415021727</v>
       </c>
       <c r="R2">
-        <v>-89.99999999997293</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>130.4141031254557</v>
+        <v>128.0356398711232</v>
       </c>
       <c r="T2">
-        <v>3.193707723220339</v>
+        <v>3.020245844266742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8776463781142543</v>
+        <v>0.6174917384338739</v>
       </c>
       <c r="O3">
-        <v>0.9999999999942254</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P3">
-        <v>0.796934846137748</v>
+        <v>0.7469662905646188</v>
       </c>
       <c r="Q3">
-        <v>40.29369172106473</v>
+        <v>41.81125415715731</v>
       </c>
       <c r="R3">
-        <v>-89.99999999986593</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>147.13883715094</v>
+        <v>128.0356398742511</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9559372837318927</v>
+        <v>0.6174917384735997</v>
       </c>
       <c r="O4">
-        <v>0.9999999999965261</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P4">
-        <v>0.9320747922992522</v>
+        <v>0.7469662905612762</v>
       </c>
       <c r="Q4">
-        <v>33.13485851458751</v>
+        <v>41.81125415722487</v>
       </c>
       <c r="R4">
-        <v>-89.99999999995288</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>149.1848688044226</v>
+        <v>128.035639877288</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999741703</v>
+        <v>0.6174917384868414</v>
       </c>
       <c r="O5">
-        <v>0.9999999999976765</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P5">
-        <v>0.9999999999896781</v>
+        <v>0.7469662905601619</v>
       </c>
       <c r="Q5">
-        <v>29.99999999975037</v>
+        <v>41.8112541572474</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S5">
-        <v>149.9999999987033</v>
+        <v>128.0356398783002</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999741703</v>
+        <v>0.6174917384868415</v>
       </c>
       <c r="O6">
-        <v>0.9999999999976765</v>
+        <v>0.9999999999908171</v>
       </c>
       <c r="P6">
-        <v>0.9999999999896781</v>
+        <v>0.7469662905601619</v>
       </c>
       <c r="Q6">
-        <v>29.99999999975037</v>
+        <v>41.81125415724741</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S6">
-        <v>149.9999999987033</v>
+        <v>128.0356398783002</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.193707723220339</v>
+        <v>3.020245844266742</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>202.8276815085675</v>
+        <v>191.8113726326878</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6152,43 +6152,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.474542044182676</v>
+        <v>1.474542044182674</v>
       </c>
       <c r="I2">
-        <v>14.8984075397507</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>2.024404383465329</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>13.05836749311474</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>13.05836749319937</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.6483337318164268</v>
+        <v>0.6174917383880851</v>
       </c>
       <c r="O2">
-        <v>0.9999999999931086</v>
+        <v>0.9999999999908337</v>
       </c>
       <c r="P2">
-        <v>0.7555279089551701</v>
+        <v>0.7469662906422754</v>
       </c>
       <c r="Q2">
-        <v>40.93117198604291</v>
+        <v>41.81125415021727</v>
       </c>
       <c r="R2">
-        <v>-89.99999999997293</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>130.4141031254557</v>
+        <v>128.0356398711232</v>
       </c>
       <c r="T2">
-        <v>3.193707723220339</v>
+        <v>3.020245844266742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8776463781142543</v>
+        <v>0.6174917384338739</v>
       </c>
       <c r="O3">
-        <v>0.9999999999942254</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P3">
-        <v>0.796934846137748</v>
+        <v>0.7469662905646188</v>
       </c>
       <c r="Q3">
-        <v>40.29369172106473</v>
+        <v>41.81125415715731</v>
       </c>
       <c r="R3">
-        <v>-89.99999999986593</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>147.13883715094</v>
+        <v>128.0356398742511</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9559372837318927</v>
+        <v>0.6174917384735997</v>
       </c>
       <c r="O4">
-        <v>0.9999999999965261</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P4">
-        <v>0.9320747922992522</v>
+        <v>0.7469662905612762</v>
       </c>
       <c r="Q4">
-        <v>33.13485851458751</v>
+        <v>41.81125415722487</v>
       </c>
       <c r="R4">
-        <v>-89.99999999995288</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>149.1848688044226</v>
+        <v>128.035639877288</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999741703</v>
+        <v>0.6174917384868414</v>
       </c>
       <c r="O5">
-        <v>0.9999999999976765</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P5">
-        <v>0.9999999999896781</v>
+        <v>0.7469662905601619</v>
       </c>
       <c r="Q5">
-        <v>29.99999999975037</v>
+        <v>41.8112541572474</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S5">
-        <v>149.9999999987033</v>
+        <v>128.0356398783002</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999741703</v>
+        <v>0.6174917384868415</v>
       </c>
       <c r="O6">
-        <v>0.9999999999976765</v>
+        <v>0.9999999999908171</v>
       </c>
       <c r="P6">
-        <v>0.9999999999896781</v>
+        <v>0.7469662905601619</v>
       </c>
       <c r="Q6">
-        <v>29.99999999975037</v>
+        <v>41.81125415724741</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S6">
-        <v>149.9999999987033</v>
+        <v>128.0356398783002</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6522,58 +6522,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.866174627544829</v>
+        <v>5.255183237588033</v>
       </c>
       <c r="D2">
-        <v>5.957644750643577</v>
+        <v>5.257902653512835</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.5521250358996</v>
+        <v>333.7489602548486</v>
       </c>
       <c r="G2">
-        <v>378.3612580572253</v>
+        <v>333.9216663616331</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.32439447418576</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6622062230867236</v>
+        <v>0.6331769188571923</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6622062231014345</v>
+        <v>0.6331769188732896</v>
       </c>
       <c r="Q2">
-        <v>0.4708164546997564</v>
+        <v>0.01721676024912031</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5291835443253</v>
+        <v>-179.9827832388245</v>
       </c>
       <c r="T2">
-        <v>5.522265125252486</v>
+        <v>5.280184171064528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.85022128643384</v>
+        <v>0.633176918746041</v>
       </c>
       <c r="O3">
-        <v>0.7144044587887743</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9830626126172691</v>
+        <v>0.6331769189884714</v>
       </c>
       <c r="Q3">
-        <v>27.75877607712543</v>
+        <v>0.01721676653590355</v>
       </c>
       <c r="R3">
-        <v>-74.93000134376798</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.6080095196035</v>
+        <v>-179.9827832332137</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016584066809081</v>
+        <v>0.6331769187329951</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489101</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055545382720063</v>
+        <v>0.6331769190289539</v>
       </c>
       <c r="Q4">
-        <v>29.37533019267688</v>
+        <v>0.01721677007768868</v>
       </c>
       <c r="R4">
-        <v>-86.32236814432962</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8855442538903</v>
+        <v>-179.9827832339436</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812663</v>
+        <v>0.6331769187286463</v>
       </c>
       <c r="O5">
-        <v>1.100000023767797</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798845</v>
+        <v>0.6331769190424479</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831627</v>
+        <v>0.0172167712582713</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005943</v>
+        <v>-179.9827832341869</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812663</v>
+        <v>0.6331769187286462</v>
       </c>
       <c r="O6">
-        <v>1.100000023767797</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798845</v>
+        <v>0.633176919042448</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831627</v>
+        <v>0.01721677125827357</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005943</v>
+        <v>-179.9827832341869</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6907,58 +6907,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.866174627544829</v>
+        <v>5.255183237588033</v>
       </c>
       <c r="D2">
-        <v>5.957644750643577</v>
+        <v>5.257902653512835</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.5521250358996</v>
+        <v>333.7489602548486</v>
       </c>
       <c r="G2">
-        <v>378.3612580572253</v>
+        <v>333.9216663616331</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.32439447418576</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6622062230867236</v>
+        <v>0.6331769188571923</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6622062231014345</v>
+        <v>0.6331769188732896</v>
       </c>
       <c r="Q2">
-        <v>0.4708164546997564</v>
+        <v>0.01721676024912031</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5291835443253</v>
+        <v>-179.9827832388245</v>
       </c>
       <c r="T2">
-        <v>5.522265125252486</v>
+        <v>5.280184171064528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.85022128643384</v>
+        <v>0.633176918746041</v>
       </c>
       <c r="O3">
-        <v>0.7144044587887743</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9830626126172691</v>
+        <v>0.6331769189884714</v>
       </c>
       <c r="Q3">
-        <v>27.75877607712543</v>
+        <v>0.01721676653590355</v>
       </c>
       <c r="R3">
-        <v>-74.93000134376798</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.6080095196035</v>
+        <v>-179.9827832332137</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016584066809081</v>
+        <v>0.6331769187329951</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489101</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055545382720063</v>
+        <v>0.6331769190289539</v>
       </c>
       <c r="Q4">
-        <v>29.37533019267688</v>
+        <v>0.01721677007768868</v>
       </c>
       <c r="R4">
-        <v>-86.32236814432962</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8855442538903</v>
+        <v>-179.9827832339436</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812663</v>
+        <v>0.6331769187286463</v>
       </c>
       <c r="O5">
-        <v>1.100000023767797</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798845</v>
+        <v>0.6331769190424479</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831627</v>
+        <v>0.0172167712582713</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005943</v>
+        <v>-179.9827832341869</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812663</v>
+        <v>0.6331769187286462</v>
       </c>
       <c r="O6">
-        <v>1.100000023767797</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798845</v>
+        <v>0.633176919042448</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831627</v>
+        <v>0.01721677125827357</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005943</v>
+        <v>-179.9827832341869</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7292,58 +7292,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.852271383255074</v>
+        <v>3.622570642599639</v>
       </c>
       <c r="D2">
-        <v>3.938790832417132</v>
+        <v>3.620809597792314</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>244.652091212519</v>
+        <v>230.0641349229671</v>
       </c>
       <c r="G2">
-        <v>250.1468142115428</v>
+        <v>229.9522935566751</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.32439447418576</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.8634613751495585</v>
+        <v>0.8369538581404182</v>
       </c>
       <c r="O2">
-        <v>0.4394653215781923</v>
+        <v>0.4028253111899598</v>
       </c>
       <c r="P2">
-        <v>0.7157579367338904</v>
+        <v>0.6911513994698277</v>
       </c>
       <c r="Q2">
-        <v>10.55861352407927</v>
+        <v>8.944278395730427</v>
       </c>
       <c r="R2">
-        <v>-113.6238695859317</v>
+        <v>-115.8807585964503</v>
       </c>
       <c r="S2">
-        <v>160.033143090832</v>
+        <v>160.3602675324944</v>
       </c>
       <c r="T2">
-        <v>3.737744238672981</v>
+        <v>3.632856785197127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9467476936535442</v>
+        <v>0.8369538580602209</v>
       </c>
       <c r="O3">
-        <v>0.8119045910532549</v>
+        <v>0.4028253110950832</v>
       </c>
       <c r="P3">
-        <v>0.9802610712764075</v>
+        <v>0.6911513995130509</v>
       </c>
       <c r="Q3">
-        <v>26.43262936007066</v>
+        <v>8.944278398586182</v>
       </c>
       <c r="R3">
-        <v>-86.3215410515333</v>
+        <v>-115.8807585788096</v>
       </c>
       <c r="S3">
-        <v>156.6329160310487</v>
+        <v>160.3602675390511</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048488308353825</v>
+        <v>0.8369538580491183</v>
       </c>
       <c r="O4">
-        <v>1.003560869452588</v>
+        <v>0.4028253110968878</v>
       </c>
       <c r="P4">
-        <v>1.058572992781525</v>
+        <v>0.6911513995394502</v>
       </c>
       <c r="Q4">
-        <v>28.92689455153273</v>
+        <v>8.944278400378611</v>
       </c>
       <c r="R4">
-        <v>-89.00864495819555</v>
+        <v>-115.8807585718169</v>
       </c>
       <c r="S4">
-        <v>152.0432699995949</v>
+        <v>160.360267539925</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023828045</v>
+        <v>0.8369538580454173</v>
       </c>
       <c r="O5">
-        <v>1.100000023798472</v>
+        <v>0.4028253110974893</v>
       </c>
       <c r="P5">
-        <v>1.100000023812409</v>
+        <v>0.6911513995482497</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870298</v>
+        <v>8.944278400976085</v>
       </c>
       <c r="R5">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694859</v>
       </c>
       <c r="S5">
-        <v>150.0000000000066</v>
+        <v>160.3602675402163</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023828045</v>
+        <v>0.8369538580454173</v>
       </c>
       <c r="O6">
-        <v>1.100000023798472</v>
+        <v>0.4028253110974893</v>
       </c>
       <c r="P6">
-        <v>1.100000023812409</v>
+        <v>0.6911513995482498</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870298</v>
+        <v>8.944278400976083</v>
       </c>
       <c r="R6">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694859</v>
       </c>
       <c r="S6">
-        <v>150.0000000000066</v>
+        <v>160.3602675402163</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7677,58 +7677,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.852271383255074</v>
+        <v>3.622570642599639</v>
       </c>
       <c r="D2">
-        <v>3.938790832417132</v>
+        <v>3.620809597792314</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>244.652091212519</v>
+        <v>230.0641349229671</v>
       </c>
       <c r="G2">
-        <v>250.1468142115428</v>
+        <v>229.9522935566751</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.32439447418576</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.8634613751495585</v>
+        <v>0.8369538581404182</v>
       </c>
       <c r="O2">
-        <v>0.4394653215781923</v>
+        <v>0.4028253111899598</v>
       </c>
       <c r="P2">
-        <v>0.7157579367338904</v>
+        <v>0.6911513994698277</v>
       </c>
       <c r="Q2">
-        <v>10.55861352407927</v>
+        <v>8.944278395730427</v>
       </c>
       <c r="R2">
-        <v>-113.6238695859317</v>
+        <v>-115.8807585964503</v>
       </c>
       <c r="S2">
-        <v>160.033143090832</v>
+        <v>160.3602675324944</v>
       </c>
       <c r="T2">
-        <v>3.737744238672981</v>
+        <v>3.632856785197127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9467476936535442</v>
+        <v>0.8369538580602209</v>
       </c>
       <c r="O3">
-        <v>0.8119045910532549</v>
+        <v>0.4028253110950832</v>
       </c>
       <c r="P3">
-        <v>0.9802610712764075</v>
+        <v>0.6911513995130509</v>
       </c>
       <c r="Q3">
-        <v>26.43262936007066</v>
+        <v>8.944278398586182</v>
       </c>
       <c r="R3">
-        <v>-86.3215410515333</v>
+        <v>-115.8807585788096</v>
       </c>
       <c r="S3">
-        <v>156.6329160310487</v>
+        <v>160.3602675390511</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048488308353825</v>
+        <v>0.8369538580491183</v>
       </c>
       <c r="O4">
-        <v>1.003560869452588</v>
+        <v>0.4028253110968878</v>
       </c>
       <c r="P4">
-        <v>1.058572992781525</v>
+        <v>0.6911513995394502</v>
       </c>
       <c r="Q4">
-        <v>28.92689455153273</v>
+        <v>8.944278400378611</v>
       </c>
       <c r="R4">
-        <v>-89.00864495819555</v>
+        <v>-115.8807585718169</v>
       </c>
       <c r="S4">
-        <v>152.0432699995949</v>
+        <v>160.360267539925</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023828045</v>
+        <v>0.8369538580454173</v>
       </c>
       <c r="O5">
-        <v>1.100000023798472</v>
+        <v>0.4028253110974893</v>
       </c>
       <c r="P5">
-        <v>1.100000023812409</v>
+        <v>0.6911513995482497</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870298</v>
+        <v>8.944278400976085</v>
       </c>
       <c r="R5">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694859</v>
       </c>
       <c r="S5">
-        <v>150.0000000000066</v>
+        <v>160.3602675402163</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023828045</v>
+        <v>0.8369538580454173</v>
       </c>
       <c r="O6">
-        <v>1.100000023798472</v>
+        <v>0.4028253110974893</v>
       </c>
       <c r="P6">
-        <v>1.100000023812409</v>
+        <v>0.6911513995482498</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870298</v>
+        <v>8.944278400976083</v>
       </c>
       <c r="R6">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694859</v>
       </c>
       <c r="S6">
-        <v>150.0000000000066</v>
+        <v>160.3602675402163</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8062,58 +8062,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.636360475525315</v>
+        <v>4.204859615112913</v>
       </c>
       <c r="D2">
-        <v>4.785626802875648</v>
+        <v>4.207328731315589</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.448436546515</v>
+        <v>267.044451375903</v>
       </c>
       <c r="G2">
-        <v>303.9281215169478</v>
+        <v>267.2012613153732</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246257</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6010474781944507</v>
+        <v>0.5753800350087245</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6010474781779958</v>
+        <v>0.5753800349877173</v>
       </c>
       <c r="Q2">
-        <v>0.9674207873351104</v>
+        <v>0.01955211452977546</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0325792133333</v>
+        <v>-179.980447886011</v>
       </c>
       <c r="T2">
-        <v>4.416160613490308</v>
+        <v>4.227570600613082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.698299966111273</v>
+        <v>0.5753800349053523</v>
       </c>
       <c r="O3">
-        <v>0.598095084848363</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9013758269202014</v>
+        <v>0.575380035095409</v>
       </c>
       <c r="Q3">
-        <v>29.4369657065793</v>
+        <v>0.0195521210022494</v>
       </c>
       <c r="R3">
-        <v>-62.81773553735522</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.9062050799992</v>
+        <v>-179.9804478802643</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8994249918634523</v>
+        <v>0.5753800349049832</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416573</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9570402938940408</v>
+        <v>0.5753800351436865</v>
       </c>
       <c r="Q4">
-        <v>29.85429174898894</v>
+        <v>0.01955212651045704</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414675</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.539134862884</v>
+        <v>-179.9804478829599</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999821964</v>
+        <v>0.5753800349048602</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447502</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634124</v>
+        <v>0.5753800351597791</v>
       </c>
       <c r="Q5">
-        <v>29.9999999982646</v>
+        <v>0.01955212834653894</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001158</v>
+        <v>-179.9804478838584</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999821964</v>
+        <v>0.5753800349048602</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447502</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634124</v>
+        <v>0.5753800351597791</v>
       </c>
       <c r="Q6">
-        <v>29.9999999982646</v>
+        <v>0.01955212834652842</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001158</v>
+        <v>-179.9804478838584</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.947041257758793</v>
+        <v>3.617960382498487</v>
       </c>
       <c r="C2">
-        <v>752.0123597809672</v>
+        <v>689.3140322484579</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835045</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="F2">
-        <v>0.4394653215735361</v>
+        <v>0.40282531118231</v>
       </c>
       <c r="G2">
-        <v>45.00000000019415</v>
+        <v>45.00000000004626</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8119045910498832</v>
+        <v>0.4028253110876389</v>
       </c>
       <c r="G3">
-        <v>3.678458948414037</v>
+        <v>-25.88075857997307</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00356086945038</v>
+        <v>0.402825311089443</v>
       </c>
       <c r="G4">
-        <v>0.9913550417856893</v>
+        <v>-25.88075857298042</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023796827</v>
+        <v>0.4028253110900444</v>
       </c>
       <c r="G5">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064953</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023796827</v>
+        <v>0.4028253110900445</v>
       </c>
       <c r="G6">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064951</v>
       </c>
     </row>
   </sheetData>
@@ -8598,58 +8598,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.636360475525315</v>
+        <v>4.204859615112913</v>
       </c>
       <c r="D2">
-        <v>4.785626802875648</v>
+        <v>4.207328731315589</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.448436546515</v>
+        <v>267.044451375903</v>
       </c>
       <c r="G2">
-        <v>303.9281215169478</v>
+        <v>267.2012613153732</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246257</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6010474781944507</v>
+        <v>0.5753800350087245</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6010474781779958</v>
+        <v>0.5753800349877173</v>
       </c>
       <c r="Q2">
-        <v>0.9674207873351104</v>
+        <v>0.01955211452977546</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0325792133333</v>
+        <v>-179.980447886011</v>
       </c>
       <c r="T2">
-        <v>4.416160613490308</v>
+        <v>4.227570600613082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.698299966111273</v>
+        <v>0.5753800349053523</v>
       </c>
       <c r="O3">
-        <v>0.598095084848363</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9013758269202014</v>
+        <v>0.575380035095409</v>
       </c>
       <c r="Q3">
-        <v>29.4369657065793</v>
+        <v>0.0195521210022494</v>
       </c>
       <c r="R3">
-        <v>-62.81773553735522</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.9062050799992</v>
+        <v>-179.9804478802643</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8994249918634523</v>
+        <v>0.5753800349049832</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416573</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9570402938940408</v>
+        <v>0.5753800351436865</v>
       </c>
       <c r="Q4">
-        <v>29.85429174898894</v>
+        <v>0.01955212651045704</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414675</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.539134862884</v>
+        <v>-179.9804478829599</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999821964</v>
+        <v>0.5753800349048602</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447502</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634124</v>
+        <v>0.5753800351597791</v>
       </c>
       <c r="Q5">
-        <v>29.9999999982646</v>
+        <v>0.01955212834653894</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001158</v>
+        <v>-179.9804478838584</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999821964</v>
+        <v>0.5753800349048602</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447502</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634124</v>
+        <v>0.5753800351597791</v>
       </c>
       <c r="Q6">
-        <v>29.9999999982646</v>
+        <v>0.01955212834652842</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001158</v>
+        <v>-179.9804478838584</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8983,58 +8983,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.184177784595169</v>
+        <v>3.017335629541762</v>
       </c>
       <c r="D2">
-        <v>3.289392018549804</v>
+        <v>3.015854372955129</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>202.2224491192012</v>
+        <v>191.6265491746524</v>
       </c>
       <c r="G2">
-        <v>208.904450411793</v>
+        <v>191.5324767468589</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246257</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7672540234385913</v>
+        <v>0.7463003082195627</v>
       </c>
       <c r="O2">
-        <v>0.3649309894066022</v>
+        <v>0.3354590831689818</v>
       </c>
       <c r="P2">
-        <v>0.6406501315959038</v>
+        <v>0.6176158953322699</v>
       </c>
       <c r="Q2">
-        <v>10.0430240031902</v>
+        <v>8.09452090411961</v>
       </c>
       <c r="R2">
-        <v>-113.7447931364147</v>
+        <v>-117.0248837768026</v>
       </c>
       <c r="S2">
-        <v>161.7866442133318</v>
+        <v>161.7176503553877</v>
       </c>
       <c r="T2">
-        <v>3.11286303790563</v>
+        <v>3.02761408616841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7993189627126931</v>
+        <v>0.746300308142146</v>
       </c>
       <c r="O3">
-        <v>0.6580170546204458</v>
+        <v>0.3354590830770994</v>
       </c>
       <c r="P3">
-        <v>0.8765821545015321</v>
+        <v>0.6176158953777589</v>
       </c>
       <c r="Q3">
-        <v>26.67453155635185</v>
+        <v>8.094520907268352</v>
       </c>
       <c r="R3">
-        <v>-80.09471671645154</v>
+        <v>-117.0248837562212</v>
       </c>
       <c r="S3">
-        <v>160.723992112194</v>
+        <v>161.7176503623313</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9327857238169885</v>
+        <v>0.7463003081389364</v>
       </c>
       <c r="O4">
-        <v>0.8835420919289405</v>
+        <v>0.3354590831007256</v>
       </c>
       <c r="P4">
-        <v>0.9553060438159338</v>
+        <v>0.6176158954174237</v>
       </c>
       <c r="Q4">
-        <v>29.05060745927353</v>
+        <v>8.094520910305796</v>
       </c>
       <c r="R4">
-        <v>-87.55250307707581</v>
+        <v>-117.024883745212</v>
       </c>
       <c r="S4">
-        <v>153.2627319207223</v>
+        <v>161.717650362412</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999922343</v>
+        <v>0.7463003081378664</v>
       </c>
       <c r="O5">
-        <v>0.9999999999676809</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P5">
-        <v>0.9999999999752024</v>
+        <v>0.6176158954306453</v>
       </c>
       <c r="Q5">
-        <v>29.99999999869765</v>
+        <v>8.094520911318289</v>
       </c>
       <c r="R5">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415422</v>
       </c>
       <c r="S5">
-        <v>149.9999999997538</v>
+        <v>161.717650362439</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999922343</v>
+        <v>0.7463003081378664</v>
       </c>
       <c r="O6">
-        <v>0.9999999999676809</v>
+        <v>0.3354590831086013</v>
       </c>
       <c r="P6">
-        <v>0.9999999999752024</v>
+        <v>0.6176158954306454</v>
       </c>
       <c r="Q6">
-        <v>29.99999999869765</v>
+        <v>8.094520911318281</v>
       </c>
       <c r="R6">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415422</v>
       </c>
       <c r="S6">
-        <v>149.9999999997538</v>
+        <v>161.7176503624389</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9368,58 +9368,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.184177784595169</v>
+        <v>3.017335629541762</v>
       </c>
       <c r="D2">
-        <v>3.289392018549804</v>
+        <v>3.015854372955129</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>202.2224491192012</v>
+        <v>191.6265491746524</v>
       </c>
       <c r="G2">
-        <v>208.904450411793</v>
+        <v>191.5324767468589</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246257</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7672540234385913</v>
+        <v>0.7463003082195627</v>
       </c>
       <c r="O2">
-        <v>0.3649309894066022</v>
+        <v>0.3354590831689818</v>
       </c>
       <c r="P2">
-        <v>0.6406501315959038</v>
+        <v>0.6176158953322699</v>
       </c>
       <c r="Q2">
-        <v>10.0430240031902</v>
+        <v>8.09452090411961</v>
       </c>
       <c r="R2">
-        <v>-113.7447931364147</v>
+        <v>-117.0248837768026</v>
       </c>
       <c r="S2">
-        <v>161.7866442133318</v>
+        <v>161.7176503553877</v>
       </c>
       <c r="T2">
-        <v>3.11286303790563</v>
+        <v>3.02761408616841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7993189627126931</v>
+        <v>0.746300308142146</v>
       </c>
       <c r="O3">
-        <v>0.6580170546204458</v>
+        <v>0.3354590830770994</v>
       </c>
       <c r="P3">
-        <v>0.8765821545015321</v>
+        <v>0.6176158953777589</v>
       </c>
       <c r="Q3">
-        <v>26.67453155635185</v>
+        <v>8.094520907268352</v>
       </c>
       <c r="R3">
-        <v>-80.09471671645154</v>
+        <v>-117.0248837562212</v>
       </c>
       <c r="S3">
-        <v>160.723992112194</v>
+        <v>161.7176503623313</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9327857238169885</v>
+        <v>0.7463003081389364</v>
       </c>
       <c r="O4">
-        <v>0.8835420919289405</v>
+        <v>0.3354590831007256</v>
       </c>
       <c r="P4">
-        <v>0.9553060438159338</v>
+        <v>0.6176158954174237</v>
       </c>
       <c r="Q4">
-        <v>29.05060745927353</v>
+        <v>8.094520910305796</v>
       </c>
       <c r="R4">
-        <v>-87.55250307707581</v>
+        <v>-117.024883745212</v>
       </c>
       <c r="S4">
-        <v>153.2627319207223</v>
+        <v>161.717650362412</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999922343</v>
+        <v>0.7463003081378664</v>
       </c>
       <c r="O5">
-        <v>0.9999999999676809</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P5">
-        <v>0.9999999999752024</v>
+        <v>0.6176158954306453</v>
       </c>
       <c r="Q5">
-        <v>29.99999999869765</v>
+        <v>8.094520911318289</v>
       </c>
       <c r="R5">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415422</v>
       </c>
       <c r="S5">
-        <v>149.9999999997538</v>
+        <v>161.717650362439</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999922343</v>
+        <v>0.7463003081378664</v>
       </c>
       <c r="O6">
-        <v>0.9999999999676809</v>
+        <v>0.3354590831086013</v>
       </c>
       <c r="P6">
-        <v>0.9999999999752024</v>
+        <v>0.6176158954306454</v>
       </c>
       <c r="Q6">
-        <v>29.99999999869765</v>
+        <v>8.094520911318281</v>
       </c>
       <c r="R6">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415422</v>
       </c>
       <c r="S6">
-        <v>149.9999999997538</v>
+        <v>161.7176503624389</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9711,22 +9711,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.947041257758793</v>
+        <v>3.617960382498487</v>
       </c>
       <c r="C2">
-        <v>752.0123597809672</v>
+        <v>689.3140322484579</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835045</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="F2">
-        <v>0.4394653215735361</v>
+        <v>0.40282531118231</v>
       </c>
       <c r="G2">
-        <v>45.00000000019415</v>
+        <v>45.00000000004626</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8119045910498832</v>
+        <v>0.4028253110876389</v>
       </c>
       <c r="G3">
-        <v>3.678458948414037</v>
+        <v>-25.88075857997307</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00356086945038</v>
+        <v>0.402825311089443</v>
       </c>
       <c r="G4">
-        <v>0.9913550417856893</v>
+        <v>-25.88075857298042</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023796827</v>
+        <v>0.4028253110900444</v>
       </c>
       <c r="G5">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064953</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023796827</v>
+        <v>0.4028253110900445</v>
       </c>
       <c r="G6">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064951</v>
       </c>
     </row>
   </sheetData>
@@ -9862,22 +9862,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.0000280266122</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305344</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.28940677174621</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10013,22 +10013,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.0000280266122</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305344</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.28940677174621</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10164,22 +10164,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.277613956240325</v>
+        <v>3.012913138782225</v>
       </c>
       <c r="C2">
-        <v>624.4693289785586</v>
+        <v>574.0370498678896</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305344</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
-        <v>0.3649309893789943</v>
+        <v>0.3354590831385723</v>
       </c>
       <c r="G2">
-        <v>44.99999999529343</v>
+        <v>44.99999999355207</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6580170546041253</v>
+        <v>0.3354590830466708</v>
       </c>
       <c r="G3">
-        <v>9.905283284221765</v>
+        <v>-27.0248837607181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8835420919224103</v>
+        <v>0.3354590830702974</v>
       </c>
       <c r="G4">
-        <v>2.447496923043595</v>
+        <v>-27.02488374970877</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781727</v>
       </c>
       <c r="G5">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603899</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781729</v>
       </c>
       <c r="G6">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.024883746039</v>
       </c>
     </row>
   </sheetData>
@@ -10315,22 +10315,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.277613956240325</v>
+        <v>3.012913138782225</v>
       </c>
       <c r="C2">
-        <v>624.4693289785586</v>
+        <v>574.0370498678896</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305344</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
-        <v>0.3649309893789943</v>
+        <v>0.3354590831385723</v>
       </c>
       <c r="G2">
-        <v>44.99999999529343</v>
+        <v>44.99999999355207</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6580170546041253</v>
+        <v>0.3354590830466708</v>
       </c>
       <c r="G3">
-        <v>9.905283284221765</v>
+        <v>-27.0248837607181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8835420919224103</v>
+        <v>0.3354590830702974</v>
       </c>
       <c r="G4">
-        <v>2.447496923043595</v>
+        <v>-27.02488374970877</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781727</v>
       </c>
       <c r="G5">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603899</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781729</v>
       </c>
       <c r="G6">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.024883746039</v>
       </c>
     </row>
   </sheetData>
@@ -10505,55 +10505,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.32439447418576</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.9526279647838862</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872186</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-5.561112244386752E-11</v>
+        <v>-8.692679414161542E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224353</v>
+        <v>0.9526279646671956</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965611</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.457819991245676E-10</v>
       </c>
       <c r="R3">
-        <v>-74.9300013442577</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404243</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.9526279649233322</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564906685982061E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.910066833103</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315003</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037946790919374E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315003</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322561</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.03794678975963E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward34_impedance.xlsx
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.545454803106412</v>
+        <v>4.545454803106413</v>
       </c>
       <c r="D2">
-        <v>4.545454803106412</v>
+        <v>4.545454803106413</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.32439447418576</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
         <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394474104236</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563988</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.692679414161542E-11</v>
+        <v>-8.693790336816503E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279646671956</v>
+        <v>0.9526279646671957</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965611</v>
+        <v>0.9526279648965605</v>
       </c>
       <c r="Q3">
-        <v>1.457819991245676E-10</v>
+        <v>1.457670556294343E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279646404243</v>
+        <v>0.9526279646404247</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233322</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>1.564906685982061E-09</v>
+        <v>1.564886915096744E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315003</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322559</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q5">
-        <v>2.037946790919374E-09</v>
+        <v>2.037927840950435E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999979535</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315003</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322561</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q6">
-        <v>2.03794678975963E-09</v>
+        <v>2.037927840950435E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999979535</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
@@ -1086,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377197</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="D2">
-        <v>3.734156921377197</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>237.1508154128772</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="G2">
-        <v>237.1508154128772</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="H2">
         <v>1.300764447633542</v>
@@ -1107,13 +1107,13 @@
         <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.32439447418576</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
         <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394474104236</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563988</v>
@@ -1122,13 +1122,13 @@
         <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982758471</v>
+        <v>0.2400406982758472</v>
       </c>
       <c r="P2">
         <v>0.8960735769153693</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997127</v>
+        <v>5.766209884997131</v>
       </c>
       <c r="R2">
         <v>-121.3466079962483</v>
@@ -1181,19 +1181,19 @@
         <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.240040698163019</v>
+        <v>0.2400406981630192</v>
       </c>
       <c r="P3">
-        <v>0.8960735770061726</v>
+        <v>0.8960735770061725</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977199</v>
+        <v>5.766209884977205</v>
       </c>
       <c r="R3">
         <v>-121.3466079609364</v>
       </c>
       <c r="S3">
-        <v>173.4315681785683</v>
+        <v>173.4315681785684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1240,13 +1240,13 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651697</v>
+        <v>0.2400406981651698</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323209</v>
+        <v>0.8960735770323205</v>
       </c>
       <c r="Q4">
-        <v>5.766209886018095</v>
+        <v>5.766209886018097</v>
       </c>
       <c r="R4">
         <v>-121.3466079469509</v>
@@ -1299,13 +1299,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658866</v>
+        <v>0.2400406981658867</v>
       </c>
       <c r="P5">
-        <v>0.896073577041037</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365058</v>
+        <v>5.766209886365061</v>
       </c>
       <c r="R5">
         <v>-121.3466079422891</v>
@@ -1358,16 +1358,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658866</v>
+        <v>0.2400406981658867</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410371</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q6">
         <v>5.766209886365061</v>
       </c>
       <c r="R6">
-        <v>-121.346607942289</v>
+        <v>-121.3466079422891</v>
       </c>
       <c r="S6">
         <v>173.4315681774384</v>
@@ -1453,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377197</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="D2">
-        <v>3.734156921377197</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>237.1508154128772</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="G2">
-        <v>237.1508154128772</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="H2">
         <v>1.300764447633542</v>
@@ -1474,13 +1474,13 @@
         <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.32439447418576</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
         <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394474104236</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563988</v>
@@ -1489,13 +1489,13 @@
         <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982758471</v>
+        <v>0.2400406982758472</v>
       </c>
       <c r="P2">
         <v>0.8960735769153693</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997127</v>
+        <v>5.766209884997131</v>
       </c>
       <c r="R2">
         <v>-121.3466079962483</v>
@@ -1548,19 +1548,19 @@
         <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.240040698163019</v>
+        <v>0.2400406981630192</v>
       </c>
       <c r="P3">
-        <v>0.8960735770061726</v>
+        <v>0.8960735770061725</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977199</v>
+        <v>5.766209884977205</v>
       </c>
       <c r="R3">
         <v>-121.3466079609364</v>
       </c>
       <c r="S3">
-        <v>173.4315681785683</v>
+        <v>173.4315681785684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1607,13 +1607,13 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651697</v>
+        <v>0.2400406981651698</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323209</v>
+        <v>0.8960735770323205</v>
       </c>
       <c r="Q4">
-        <v>5.766209886018095</v>
+        <v>5.766209886018097</v>
       </c>
       <c r="R4">
         <v>-121.3466079469509</v>
@@ -1666,13 +1666,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658866</v>
+        <v>0.2400406981658867</v>
       </c>
       <c r="P5">
-        <v>0.896073577041037</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365058</v>
+        <v>5.766209886365061</v>
       </c>
       <c r="R5">
         <v>-121.3466079422891</v>
@@ -1725,16 +1725,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658866</v>
+        <v>0.2400406981658867</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410371</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q6">
         <v>5.766209886365061</v>
       </c>
       <c r="R6">
-        <v>-121.346607942289</v>
+        <v>-121.3466079422891</v>
       </c>
       <c r="S6">
         <v>173.4315681774384</v>
@@ -1841,7 +1841,7 @@
         <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993721246257</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
         <v>15.0499369732484</v>
@@ -1862,7 +1862,7 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.71998533053445E-10</v>
+        <v>1.719916241951345E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1912,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660254036789676</v>
+        <v>0.8660254036789677</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905275</v>
+        <v>0.8660254038905276</v>
       </c>
       <c r="Q3">
-        <v>4.107183603276672E-10</v>
+        <v>4.10703859363116E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254036546304</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>3.135419194255636E-09</v>
+        <v>3.135401782691356E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465179</v>
+        <v>0.8660254036465181</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229776</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>4.043655648314882E-09</v>
+        <v>4.043631647852345E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465179</v>
+        <v>0.8660254036465181</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>4.043668746722647E-09</v>
+        <v>4.043631647852345E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993721246257</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
         <v>15.0499369732484</v>
@@ -2229,7 +2229,7 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.71998533053445E-10</v>
+        <v>1.719916241951345E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660254036789676</v>
+        <v>0.8660254036789677</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905275</v>
+        <v>0.8660254038905276</v>
       </c>
       <c r="Q3">
-        <v>4.107183603276672E-10</v>
+        <v>4.10703859363116E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254036546304</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>3.135419194255636E-09</v>
+        <v>3.135401782691356E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465179</v>
+        <v>0.8660254036465181</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229776</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>4.043655648314882E-09</v>
+        <v>4.043631647852345E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465179</v>
+        <v>0.8660254036465181</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>4.043668746722647E-09</v>
+        <v>4.043631647852345E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993721246257</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
         <v>15.0499369732484</v>
@@ -2590,19 +2590,19 @@
         <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242864</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
         <v>0.8180121061818274</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115785</v>
+        <v>5.173976904115779</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>174.1659345853096</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2652,10 +2652,10 @@
         <v>0.1964063472166734</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689185</v>
+        <v>0.8180121062689186</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114586</v>
+        <v>5.173976904114575</v>
       </c>
       <c r="R3">
         <v>-122.1449202549969</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235482</v>
+        <v>0.9220324943235484</v>
       </c>
       <c r="O4">
         <v>0.1964063472443389</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966166</v>
+        <v>0.8180121062966167</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219924</v>
+        <v>5.173976906219907</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329784</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
         <v>174.1659345844574</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163393</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535608</v>
+        <v>0.1964063472535607</v>
       </c>
       <c r="P5">
         <v>0.8180121063058493</v>
       </c>
       <c r="Q5">
-        <v>5.173976906921705</v>
+        <v>5.173976906921687</v>
       </c>
       <c r="R5">
-        <v>-122.1449202256389</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S5">
         <v>174.1659345837774</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163393</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535609</v>
+        <v>0.1964063472535607</v>
       </c>
       <c r="P6">
         <v>0.8180121063058493</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921713</v>
+        <v>5.173976906921687</v>
       </c>
       <c r="R6">
-        <v>-122.1449202256389</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
         <v>174.1659345837774</v>
@@ -2942,7 +2942,7 @@
         <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993721246257</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
         <v>15.0499369732484</v>
@@ -2957,19 +2957,19 @@
         <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242864</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
         <v>0.8180121061818274</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115785</v>
+        <v>5.173976904115779</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>174.1659345853096</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3019,10 +3019,10 @@
         <v>0.1964063472166734</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689185</v>
+        <v>0.8180121062689186</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114586</v>
+        <v>5.173976904114575</v>
       </c>
       <c r="R3">
         <v>-122.1449202549969</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235482</v>
+        <v>0.9220324943235484</v>
       </c>
       <c r="O4">
         <v>0.1964063472443389</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966166</v>
+        <v>0.8180121062966167</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219924</v>
+        <v>5.173976906219907</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329784</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
         <v>174.1659345844574</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163393</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535608</v>
+        <v>0.1964063472535607</v>
       </c>
       <c r="P5">
         <v>0.8180121063058493</v>
       </c>
       <c r="Q5">
-        <v>5.173976906921705</v>
+        <v>5.173976906921687</v>
       </c>
       <c r="R5">
-        <v>-122.1449202256389</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S5">
         <v>174.1659345837774</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163393</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535609</v>
+        <v>0.1964063472535607</v>
       </c>
       <c r="P6">
         <v>0.8180121063058493</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921713</v>
+        <v>5.173976906921687</v>
       </c>
       <c r="R6">
-        <v>-122.1449202256389</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
         <v>174.1659345837774</v>
@@ -3318,7 +3318,7 @@
         <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104342</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
@@ -3330,13 +3330,13 @@
         <v>1.100000023884799</v>
       </c>
       <c r="P2">
-        <v>0.6339720469102066</v>
+        <v>0.6339720469102068</v>
       </c>
       <c r="Q2">
         <v>60.15738962477764</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
         <v>119.8596212761358</v>
@@ -3386,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6343001105284112</v>
+        <v>0.6343001105284111</v>
       </c>
       <c r="O3">
-        <v>1.100000023885133</v>
+        <v>1.100000023885134</v>
       </c>
       <c r="P3">
-        <v>0.633972046799085</v>
+        <v>0.633972046799086</v>
       </c>
       <c r="Q3">
-        <v>60.15738963029998</v>
+        <v>60.15738963029992</v>
       </c>
       <c r="R3">
         <v>-89.99999999999582</v>
@@ -3448,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6343001105689012</v>
+        <v>0.6343001105689008</v>
       </c>
       <c r="O4">
         <v>1.100000023885134</v>
       </c>
       <c r="P4">
-        <v>0.6339720467858123</v>
+        <v>0.6339720467858138</v>
       </c>
       <c r="Q4">
-        <v>60.15738962955151</v>
+        <v>60.15738962955143</v>
       </c>
       <c r="R4">
         <v>-89.99999999999582</v>
@@ -3510,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6343001105823979</v>
+        <v>0.6343001105823974</v>
       </c>
       <c r="O5">
         <v>1.100000023885134</v>
       </c>
       <c r="P5">
-        <v>0.6339720467813883</v>
+        <v>0.6339720467813895</v>
       </c>
       <c r="Q5">
-        <v>60.15738962930201</v>
+        <v>60.15738962930194</v>
       </c>
       <c r="R5">
         <v>-89.99999999999582</v>
@@ -3572,16 +3572,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6343001105823979</v>
+        <v>0.6343001105823974</v>
       </c>
       <c r="O6">
         <v>1.100000023885134</v>
       </c>
       <c r="P6">
-        <v>0.6339720467813882</v>
+        <v>0.6339720467813895</v>
       </c>
       <c r="Q6">
-        <v>60.15738962930201</v>
+        <v>60.15738962930194</v>
       </c>
       <c r="R6">
         <v>-89.99999999999582</v>
@@ -3703,7 +3703,7 @@
         <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104342</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
@@ -3715,13 +3715,13 @@
         <v>1.100000023884799</v>
       </c>
       <c r="P2">
-        <v>0.6339720469102066</v>
+        <v>0.6339720469102068</v>
       </c>
       <c r="Q2">
         <v>60.15738962477764</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
         <v>119.8596212761358</v>
@@ -3771,16 +3771,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6343001105284112</v>
+        <v>0.6343001105284111</v>
       </c>
       <c r="O3">
-        <v>1.100000023885133</v>
+        <v>1.100000023885134</v>
       </c>
       <c r="P3">
-        <v>0.633972046799085</v>
+        <v>0.633972046799086</v>
       </c>
       <c r="Q3">
-        <v>60.15738963029998</v>
+        <v>60.15738963029992</v>
       </c>
       <c r="R3">
         <v>-89.99999999999582</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6343001105689012</v>
+        <v>0.6343001105689008</v>
       </c>
       <c r="O4">
         <v>1.100000023885134</v>
       </c>
       <c r="P4">
-        <v>0.6339720467858123</v>
+        <v>0.6339720467858138</v>
       </c>
       <c r="Q4">
-        <v>60.15738962955151</v>
+        <v>60.15738962955143</v>
       </c>
       <c r="R4">
         <v>-89.99999999999582</v>
@@ -3895,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6343001105823979</v>
+        <v>0.6343001105823974</v>
       </c>
       <c r="O5">
         <v>1.100000023885134</v>
       </c>
       <c r="P5">
-        <v>0.6339720467813883</v>
+        <v>0.6339720467813895</v>
       </c>
       <c r="Q5">
-        <v>60.15738962930201</v>
+        <v>60.15738962930194</v>
       </c>
       <c r="R5">
         <v>-89.99999999999582</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6343001105823979</v>
+        <v>0.6343001105823974</v>
       </c>
       <c r="O6">
         <v>1.100000023885134</v>
       </c>
       <c r="P6">
-        <v>0.6339720467813882</v>
+        <v>0.6339720467813895</v>
       </c>
       <c r="Q6">
-        <v>60.15738962930201</v>
+        <v>60.15738962930194</v>
       </c>
       <c r="R6">
         <v>-89.99999999999582</v>
@@ -4088,13 +4088,13 @@
         <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104342</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6909829222610617</v>
+        <v>0.6909829222610618</v>
       </c>
       <c r="O2">
         <v>1.100000023874115</v>
@@ -4103,7 +4103,7 @@
         <v>0.837565973006243</v>
       </c>
       <c r="Q2">
-        <v>40.43431448130421</v>
+        <v>40.4343144813042</v>
       </c>
       <c r="R2">
         <v>-89.99999999999653</v>
@@ -4162,16 +4162,16 @@
         <v>1.100000023874346</v>
       </c>
       <c r="P3">
-        <v>0.8375659729263019</v>
+        <v>0.8375659729263024</v>
       </c>
       <c r="Q3">
-        <v>40.43431448785282</v>
+        <v>40.43431448785278</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>128.8983448548237</v>
+        <v>128.8983448548238</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,19 +4218,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6909829223314873</v>
+        <v>0.6909829223314871</v>
       </c>
       <c r="O4">
         <v>1.100000023874346</v>
       </c>
       <c r="P4">
-        <v>0.8375659729151189</v>
+        <v>0.8375659729151198</v>
       </c>
       <c r="Q4">
-        <v>40.43431448872158</v>
+        <v>40.43431448872152</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
         <v>128.8983448566142</v>
@@ -4280,19 +4280,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6909829223403084</v>
+        <v>0.6909829223403081</v>
       </c>
       <c r="O5">
         <v>1.100000023874346</v>
       </c>
       <c r="P5">
-        <v>0.8375659729113915</v>
+        <v>0.8375659729113922</v>
       </c>
       <c r="Q5">
-        <v>40.43431448901116</v>
+        <v>40.43431448901111</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S5">
         <v>128.898344857211</v>
@@ -4342,19 +4342,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6909829223403083</v>
+        <v>0.6909829223403081</v>
       </c>
       <c r="O6">
         <v>1.100000023874346</v>
       </c>
       <c r="P6">
-        <v>0.8375659729113912</v>
+        <v>0.8375659729113922</v>
       </c>
       <c r="Q6">
-        <v>40.43431448901116</v>
+        <v>40.43431448901111</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
         <v>128.898344857211</v>
@@ -4624,13 +4624,13 @@
         <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104342</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6909829222610617</v>
+        <v>0.6909829222610618</v>
       </c>
       <c r="O2">
         <v>1.100000023874115</v>
@@ -4639,7 +4639,7 @@
         <v>0.837565973006243</v>
       </c>
       <c r="Q2">
-        <v>40.43431448130421</v>
+        <v>40.4343144813042</v>
       </c>
       <c r="R2">
         <v>-89.99999999999653</v>
@@ -4698,16 +4698,16 @@
         <v>1.100000023874346</v>
       </c>
       <c r="P3">
-        <v>0.8375659729263019</v>
+        <v>0.8375659729263024</v>
       </c>
       <c r="Q3">
-        <v>40.43431448785282</v>
+        <v>40.43431448785278</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>128.8983448548237</v>
+        <v>128.8983448548238</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,19 +4754,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6909829223314873</v>
+        <v>0.6909829223314871</v>
       </c>
       <c r="O4">
         <v>1.100000023874346</v>
       </c>
       <c r="P4">
-        <v>0.8375659729151189</v>
+        <v>0.8375659729151198</v>
       </c>
       <c r="Q4">
-        <v>40.43431448872158</v>
+        <v>40.43431448872152</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
         <v>128.8983448566142</v>
@@ -4816,19 +4816,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6909829223403084</v>
+        <v>0.6909829223403081</v>
       </c>
       <c r="O5">
         <v>1.100000023874346</v>
       </c>
       <c r="P5">
-        <v>0.8375659729113915</v>
+        <v>0.8375659729113922</v>
       </c>
       <c r="Q5">
-        <v>40.43431448901116</v>
+        <v>40.43431448901111</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S5">
         <v>128.898344857211</v>
@@ -4878,19 +4878,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6909829223403083</v>
+        <v>0.6909829223403081</v>
       </c>
       <c r="O6">
         <v>1.100000023874346</v>
       </c>
       <c r="P6">
-        <v>0.8375659729113912</v>
+        <v>0.8375659729113922</v>
       </c>
       <c r="Q6">
-        <v>40.43431448901116</v>
+        <v>40.43431448901111</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
         <v>128.898344857211</v>
@@ -4997,19 +4997,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.474542044182674</v>
+        <v>1.474542044182675</v>
       </c>
       <c r="I2">
         <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>1.50499372264878</v>
+        <v>1.504993722648783</v>
       </c>
       <c r="K2">
         <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695428</v>
+        <v>1.504993720695427</v>
       </c>
       <c r="M2">
         <v>15.04993697229305</v>
@@ -5018,10 +5018,10 @@
         <v>0.5765401439822564</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962972</v>
+        <v>0.999999999996297</v>
       </c>
       <c r="P2">
-        <v>0.5762017952293779</v>
+        <v>0.576201795229378</v>
       </c>
       <c r="Q2">
         <v>60.17868937655199</v>
@@ -5080,19 +5080,19 @@
         <v>0.5765401440904327</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962973</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P3">
-        <v>0.5762017951254224</v>
+        <v>0.5762017951254225</v>
       </c>
       <c r="Q3">
-        <v>60.17868938223106</v>
+        <v>60.17868938223104</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>119.8405974340221</v>
+        <v>119.8405974340222</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,19 +5139,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.576540144138617</v>
+        <v>0.5765401441386168</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962973</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P4">
-        <v>0.5762017951247251</v>
+        <v>0.5762017951247254</v>
       </c>
       <c r="Q4">
-        <v>60.1786893795089</v>
+        <v>60.17868937950888</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
         <v>119.8405974395331</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5765401441546784</v>
+        <v>0.5765401441546782</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962973</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P5">
-        <v>0.5762017951244927</v>
+        <v>0.5762017951244928</v>
       </c>
       <c r="Q5">
         <v>60.1786893786015</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S5">
-        <v>119.84059744137</v>
+        <v>119.8405974413701</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5765401441546786</v>
+        <v>0.5765401441546782</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P6">
-        <v>0.5762017951244927</v>
+        <v>0.5762017951244928</v>
       </c>
       <c r="Q6">
         <v>60.1786893786015</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S6">
-        <v>119.84059744137</v>
+        <v>119.8405974413701</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5382,19 +5382,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.474542044182674</v>
+        <v>1.474542044182675</v>
       </c>
       <c r="I2">
         <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>1.50499372264878</v>
+        <v>1.504993722648783</v>
       </c>
       <c r="K2">
         <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695428</v>
+        <v>1.504993720695427</v>
       </c>
       <c r="M2">
         <v>15.04993697229305</v>
@@ -5403,10 +5403,10 @@
         <v>0.5765401439822564</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962972</v>
+        <v>0.999999999996297</v>
       </c>
       <c r="P2">
-        <v>0.5762017952293779</v>
+        <v>0.576201795229378</v>
       </c>
       <c r="Q2">
         <v>60.17868937655199</v>
@@ -5465,19 +5465,19 @@
         <v>0.5765401440904327</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962973</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P3">
-        <v>0.5762017951254224</v>
+        <v>0.5762017951254225</v>
       </c>
       <c r="Q3">
-        <v>60.17868938223106</v>
+        <v>60.17868938223104</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>119.8405974340221</v>
+        <v>119.8405974340222</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,19 +5524,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.576540144138617</v>
+        <v>0.5765401441386168</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962973</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P4">
-        <v>0.5762017951247251</v>
+        <v>0.5762017951247254</v>
       </c>
       <c r="Q4">
-        <v>60.1786893795089</v>
+        <v>60.17868937950888</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
         <v>119.8405974395331</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5765401441546784</v>
+        <v>0.5765401441546782</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962973</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P5">
-        <v>0.5762017951244927</v>
+        <v>0.5762017951244928</v>
       </c>
       <c r="Q5">
         <v>60.1786893786015</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S5">
-        <v>119.84059744137</v>
+        <v>119.8405974413701</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5765401441546786</v>
+        <v>0.5765401441546782</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962974</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P6">
-        <v>0.5762017951244927</v>
+        <v>0.5762017951244928</v>
       </c>
       <c r="Q6">
         <v>60.1786893786015</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S6">
-        <v>119.84059744137</v>
+        <v>119.8405974413701</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5767,19 +5767,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.474542044182674</v>
+        <v>1.474542044182675</v>
       </c>
       <c r="I2">
         <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>1.50499372264878</v>
+        <v>1.504993722648783</v>
       </c>
       <c r="K2">
         <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695428</v>
+        <v>1.504993720695427</v>
       </c>
       <c r="M2">
         <v>15.04993697229305</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6174917384338739</v>
+        <v>0.6174917384338742</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908169</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P3">
         <v>0.7469662905646188</v>
       </c>
       <c r="Q3">
-        <v>41.81125415715731</v>
+        <v>41.81125415715729</v>
       </c>
       <c r="R3">
         <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>128.0356398742511</v>
+        <v>128.0356398742512</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,16 +5909,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6174917384735997</v>
+        <v>0.6174917384735996</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908169</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P4">
-        <v>0.7469662905612762</v>
+        <v>0.7469662905612763</v>
       </c>
       <c r="Q4">
-        <v>41.81125415722487</v>
+        <v>41.81125415722486</v>
       </c>
       <c r="R4">
         <v>-89.99999999999615</v>
@@ -5974,19 +5974,19 @@
         <v>0.6174917384868414</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908169</v>
+        <v>0.9999999999908167</v>
       </c>
       <c r="P5">
-        <v>0.7469662905601619</v>
+        <v>0.7469662905601621</v>
       </c>
       <c r="Q5">
-        <v>41.8112541572474</v>
+        <v>41.81125415724739</v>
       </c>
       <c r="R5">
         <v>-89.99999999999615</v>
       </c>
       <c r="S5">
-        <v>128.0356398783002</v>
+        <v>128.0356398783003</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6174917384868415</v>
+        <v>0.6174917384868414</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908171</v>
+        <v>0.9999999999908167</v>
       </c>
       <c r="P6">
-        <v>0.7469662905601619</v>
+        <v>0.7469662905601621</v>
       </c>
       <c r="Q6">
-        <v>41.81125415724741</v>
+        <v>41.81125415724739</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>128.0356398783002</v>
+        <v>128.0356398783003</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6152,19 +6152,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.474542044182674</v>
+        <v>1.474542044182675</v>
       </c>
       <c r="I2">
         <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>1.50499372264878</v>
+        <v>1.504993722648783</v>
       </c>
       <c r="K2">
         <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695428</v>
+        <v>1.504993720695427</v>
       </c>
       <c r="M2">
         <v>15.04993697229305</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6174917384338739</v>
+        <v>0.6174917384338742</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908169</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P3">
         <v>0.7469662905646188</v>
       </c>
       <c r="Q3">
-        <v>41.81125415715731</v>
+        <v>41.81125415715729</v>
       </c>
       <c r="R3">
         <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>128.0356398742511</v>
+        <v>128.0356398742512</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,16 +6294,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6174917384735997</v>
+        <v>0.6174917384735996</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908169</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P4">
-        <v>0.7469662905612762</v>
+        <v>0.7469662905612763</v>
       </c>
       <c r="Q4">
-        <v>41.81125415722487</v>
+        <v>41.81125415722486</v>
       </c>
       <c r="R4">
         <v>-89.99999999999615</v>
@@ -6359,19 +6359,19 @@
         <v>0.6174917384868414</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908169</v>
+        <v>0.9999999999908167</v>
       </c>
       <c r="P5">
-        <v>0.7469662905601619</v>
+        <v>0.7469662905601621</v>
       </c>
       <c r="Q5">
-        <v>41.8112541572474</v>
+        <v>41.81125415724739</v>
       </c>
       <c r="R5">
         <v>-89.99999999999615</v>
       </c>
       <c r="S5">
-        <v>128.0356398783002</v>
+        <v>128.0356398783003</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6174917384868415</v>
+        <v>0.6174917384868414</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908171</v>
+        <v>0.9999999999908167</v>
       </c>
       <c r="P6">
-        <v>0.7469662905601619</v>
+        <v>0.7469662905601621</v>
       </c>
       <c r="Q6">
-        <v>41.81125415724741</v>
+        <v>41.81125415724739</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>128.0356398783002</v>
+        <v>128.0356398783003</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6543,28 +6543,28 @@
         <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.32439447418576</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
         <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394474104236</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6331769188571923</v>
+        <v>0.6331769188571922</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6331769188732896</v>
+        <v>0.6331769188732898</v>
       </c>
       <c r="Q2">
-        <v>0.01721676024912031</v>
+        <v>0.01721676024911748</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>-179.9827832388245</v>
       </c>
       <c r="T2">
-        <v>5.280184171064528</v>
+        <v>5.280184171064527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,16 +6617,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.633176918746041</v>
+        <v>0.6331769187460412</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6331769189884714</v>
+        <v>0.6331769189884716</v>
       </c>
       <c r="Q3">
-        <v>0.01721676653590355</v>
+        <v>0.01721676653589025</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6679,16 +6679,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6331769187329951</v>
+        <v>0.6331769187329953</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6331769190289539</v>
+        <v>0.633176919028954</v>
       </c>
       <c r="Q4">
-        <v>0.01721677007768868</v>
+        <v>0.01721677007765436</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6741,16 +6741,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6331769187286463</v>
+        <v>0.6331769187286467</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6331769190424479</v>
+        <v>0.6331769190424481</v>
       </c>
       <c r="Q5">
-        <v>0.0172167712582713</v>
+        <v>0.01721677125824132</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -6803,16 +6803,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6331769187286462</v>
+        <v>0.6331769187286467</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.633176919042448</v>
+        <v>0.6331769190424481</v>
       </c>
       <c r="Q6">
-        <v>0.01721677125827357</v>
+        <v>0.01721677125824132</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6928,28 +6928,28 @@
         <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.32439447418576</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
         <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394474104236</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6331769188571923</v>
+        <v>0.6331769188571922</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6331769188732896</v>
+        <v>0.6331769188732898</v>
       </c>
       <c r="Q2">
-        <v>0.01721676024912031</v>
+        <v>0.01721676024911748</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>-179.9827832388245</v>
       </c>
       <c r="T2">
-        <v>5.280184171064528</v>
+        <v>5.280184171064527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,16 +7002,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.633176918746041</v>
+        <v>0.6331769187460412</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6331769189884714</v>
+        <v>0.6331769189884716</v>
       </c>
       <c r="Q3">
-        <v>0.01721676653590355</v>
+        <v>0.01721676653589025</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -7064,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6331769187329951</v>
+        <v>0.6331769187329953</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6331769190289539</v>
+        <v>0.633176919028954</v>
       </c>
       <c r="Q4">
-        <v>0.01721677007768868</v>
+        <v>0.01721677007765436</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -7126,16 +7126,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6331769187286463</v>
+        <v>0.6331769187286467</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6331769190424479</v>
+        <v>0.6331769190424481</v>
       </c>
       <c r="Q5">
-        <v>0.0172167712582713</v>
+        <v>0.01721677125824132</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -7188,16 +7188,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6331769187286462</v>
+        <v>0.6331769187286467</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.633176919042448</v>
+        <v>0.6331769190424481</v>
       </c>
       <c r="Q6">
-        <v>0.01721677125827357</v>
+        <v>0.01721677125824132</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -7313,13 +7313,13 @@
         <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.32439447418576</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
         <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394474104236</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563988</v>
@@ -7331,10 +7331,10 @@
         <v>0.4028253111899598</v>
       </c>
       <c r="P2">
-        <v>0.6911513994698277</v>
+        <v>0.691151399469828</v>
       </c>
       <c r="Q2">
-        <v>8.944278395730427</v>
+        <v>8.944278395730425</v>
       </c>
       <c r="R2">
         <v>-115.8807585964503</v>
@@ -7393,10 +7393,10 @@
         <v>0.4028253110950832</v>
       </c>
       <c r="P3">
-        <v>0.6911513995130509</v>
+        <v>0.6911513995130512</v>
       </c>
       <c r="Q3">
-        <v>8.944278398586182</v>
+        <v>8.944278398586166</v>
       </c>
       <c r="R3">
         <v>-115.8807585788096</v>
@@ -7449,16 +7449,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8369538580491183</v>
+        <v>0.8369538580491185</v>
       </c>
       <c r="O4">
-        <v>0.4028253110968878</v>
+        <v>0.4028253110968877</v>
       </c>
       <c r="P4">
         <v>0.6911513995394502</v>
       </c>
       <c r="Q4">
-        <v>8.944278400378611</v>
+        <v>8.94427840037859</v>
       </c>
       <c r="R4">
         <v>-115.8807585718169</v>
@@ -7511,16 +7511,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8369538580454173</v>
+        <v>0.8369538580454174</v>
       </c>
       <c r="O5">
         <v>0.4028253110974893</v>
       </c>
       <c r="P5">
-        <v>0.6911513995482497</v>
+        <v>0.6911513995482499</v>
       </c>
       <c r="Q5">
-        <v>8.944278400976085</v>
+        <v>8.944278400976071</v>
       </c>
       <c r="R5">
         <v>-115.8807585694859</v>
@@ -7573,16 +7573,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8369538580454173</v>
+        <v>0.8369538580454174</v>
       </c>
       <c r="O6">
         <v>0.4028253110974893</v>
       </c>
       <c r="P6">
-        <v>0.6911513995482498</v>
+        <v>0.6911513995482499</v>
       </c>
       <c r="Q6">
-        <v>8.944278400976083</v>
+        <v>8.944278400976071</v>
       </c>
       <c r="R6">
         <v>-115.8807585694859</v>
@@ -7698,13 +7698,13 @@
         <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.32439447418576</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
         <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394474104236</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563988</v>
@@ -7716,10 +7716,10 @@
         <v>0.4028253111899598</v>
       </c>
       <c r="P2">
-        <v>0.6911513994698277</v>
+        <v>0.691151399469828</v>
       </c>
       <c r="Q2">
-        <v>8.944278395730427</v>
+        <v>8.944278395730425</v>
       </c>
       <c r="R2">
         <v>-115.8807585964503</v>
@@ -7778,10 +7778,10 @@
         <v>0.4028253110950832</v>
       </c>
       <c r="P3">
-        <v>0.6911513995130509</v>
+        <v>0.6911513995130512</v>
       </c>
       <c r="Q3">
-        <v>8.944278398586182</v>
+        <v>8.944278398586166</v>
       </c>
       <c r="R3">
         <v>-115.8807585788096</v>
@@ -7834,16 +7834,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8369538580491183</v>
+        <v>0.8369538580491185</v>
       </c>
       <c r="O4">
-        <v>0.4028253110968878</v>
+        <v>0.4028253110968877</v>
       </c>
       <c r="P4">
         <v>0.6911513995394502</v>
       </c>
       <c r="Q4">
-        <v>8.944278400378611</v>
+        <v>8.94427840037859</v>
       </c>
       <c r="R4">
         <v>-115.8807585718169</v>
@@ -7896,16 +7896,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8369538580454173</v>
+        <v>0.8369538580454174</v>
       </c>
       <c r="O5">
         <v>0.4028253110974893</v>
       </c>
       <c r="P5">
-        <v>0.6911513995482497</v>
+        <v>0.6911513995482499</v>
       </c>
       <c r="Q5">
-        <v>8.944278400976085</v>
+        <v>8.944278400976071</v>
       </c>
       <c r="R5">
         <v>-115.8807585694859</v>
@@ -7958,16 +7958,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8369538580454173</v>
+        <v>0.8369538580454174</v>
       </c>
       <c r="O6">
         <v>0.4028253110974893</v>
       </c>
       <c r="P6">
-        <v>0.6911513995482498</v>
+        <v>0.6911513995482499</v>
       </c>
       <c r="Q6">
-        <v>8.944278400976083</v>
+        <v>8.944278400976071</v>
       </c>
       <c r="R6">
         <v>-115.8807585694859</v>
@@ -8083,7 +8083,7 @@
         <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993721246257</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
         <v>15.0499369732484</v>
@@ -8101,10 +8101,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5753800349877173</v>
+        <v>0.5753800349877172</v>
       </c>
       <c r="Q2">
-        <v>0.01955211452977546</v>
+        <v>0.01955211452978382</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8163,10 +8163,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.575380035095409</v>
+        <v>0.5753800350954091</v>
       </c>
       <c r="Q3">
-        <v>0.0195521210022494</v>
+        <v>0.01955212100223688</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8219,16 +8219,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5753800349049832</v>
+        <v>0.5753800349049834</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5753800351436865</v>
+        <v>0.5753800351436867</v>
       </c>
       <c r="Q4">
-        <v>0.01955212651045704</v>
+        <v>0.01955212651042968</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8281,16 +8281,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5753800349048602</v>
+        <v>0.5753800349048603</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5753800351597791</v>
+        <v>0.5753800351597793</v>
       </c>
       <c r="Q5">
-        <v>0.01955212834653894</v>
+        <v>0.01955212834649845</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -8343,16 +8343,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5753800349048602</v>
+        <v>0.5753800349048603</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5753800351597791</v>
+        <v>0.5753800351597793</v>
       </c>
       <c r="Q6">
-        <v>0.01955212834652842</v>
+        <v>0.01955212834649845</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993721246257</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
         <v>15.0499369732484</v>
@@ -8637,10 +8637,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5753800349877173</v>
+        <v>0.5753800349877172</v>
       </c>
       <c r="Q2">
-        <v>0.01955211452977546</v>
+        <v>0.01955211452978382</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.575380035095409</v>
+        <v>0.5753800350954091</v>
       </c>
       <c r="Q3">
-        <v>0.0195521210022494</v>
+        <v>0.01955212100223688</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8755,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5753800349049832</v>
+        <v>0.5753800349049834</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5753800351436865</v>
+        <v>0.5753800351436867</v>
       </c>
       <c r="Q4">
-        <v>0.01955212651045704</v>
+        <v>0.01955212651042968</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8817,16 +8817,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5753800349048602</v>
+        <v>0.5753800349048603</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5753800351597791</v>
+        <v>0.5753800351597793</v>
       </c>
       <c r="Q5">
-        <v>0.01955212834653894</v>
+        <v>0.01955212834649845</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -8879,16 +8879,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5753800349048602</v>
+        <v>0.5753800349048603</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5753800351597791</v>
+        <v>0.5753800351597793</v>
       </c>
       <c r="Q6">
-        <v>0.01955212834652842</v>
+        <v>0.01955212834649845</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993721246257</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
         <v>15.0499369732484</v>
@@ -9022,7 +9022,7 @@
         <v>0.3354590831689818</v>
       </c>
       <c r="P2">
-        <v>0.6176158953322699</v>
+        <v>0.6176158953322701</v>
       </c>
       <c r="Q2">
         <v>8.09452090411961</v>
@@ -9078,16 +9078,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.746300308142146</v>
+        <v>0.7463003081421461</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770994</v>
+        <v>0.3354590830770992</v>
       </c>
       <c r="P3">
-        <v>0.6176158953777589</v>
+        <v>0.617615895377759</v>
       </c>
       <c r="Q3">
-        <v>8.094520907268352</v>
+        <v>8.094520907268338</v>
       </c>
       <c r="R3">
         <v>-117.0248837562212</v>
@@ -9140,16 +9140,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7463003081389364</v>
+        <v>0.7463003081389366</v>
       </c>
       <c r="O4">
-        <v>0.3354590831007256</v>
+        <v>0.3354590831007255</v>
       </c>
       <c r="P4">
-        <v>0.6176158954174237</v>
+        <v>0.6176158954174241</v>
       </c>
       <c r="Q4">
-        <v>8.094520910305796</v>
+        <v>8.094520910305773</v>
       </c>
       <c r="R4">
         <v>-117.024883745212</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7463003081378664</v>
+        <v>0.7463003081378666</v>
       </c>
       <c r="O5">
-        <v>0.335459083108601</v>
+        <v>0.3354590831086007</v>
       </c>
       <c r="P5">
-        <v>0.6176158954306453</v>
+        <v>0.6176158954306458</v>
       </c>
       <c r="Q5">
-        <v>8.094520911318289</v>
+        <v>8.094520911318252</v>
       </c>
       <c r="R5">
         <v>-117.0248837415422</v>
       </c>
       <c r="S5">
-        <v>161.717650362439</v>
+        <v>161.7176503624389</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,16 +9264,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7463003081378664</v>
+        <v>0.7463003081378666</v>
       </c>
       <c r="O6">
-        <v>0.3354590831086013</v>
+        <v>0.3354590831086007</v>
       </c>
       <c r="P6">
-        <v>0.6176158954306454</v>
+        <v>0.6176158954306458</v>
       </c>
       <c r="Q6">
-        <v>8.094520911318281</v>
+        <v>8.094520911318252</v>
       </c>
       <c r="R6">
         <v>-117.0248837415422</v>
@@ -9389,7 +9389,7 @@
         <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993721246257</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
         <v>15.0499369732484</v>
@@ -9407,7 +9407,7 @@
         <v>0.3354590831689818</v>
       </c>
       <c r="P2">
-        <v>0.6176158953322699</v>
+        <v>0.6176158953322701</v>
       </c>
       <c r="Q2">
         <v>8.09452090411961</v>
@@ -9463,16 +9463,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.746300308142146</v>
+        <v>0.7463003081421461</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770994</v>
+        <v>0.3354590830770992</v>
       </c>
       <c r="P3">
-        <v>0.6176158953777589</v>
+        <v>0.617615895377759</v>
       </c>
       <c r="Q3">
-        <v>8.094520907268352</v>
+        <v>8.094520907268338</v>
       </c>
       <c r="R3">
         <v>-117.0248837562212</v>
@@ -9525,16 +9525,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7463003081389364</v>
+        <v>0.7463003081389366</v>
       </c>
       <c r="O4">
-        <v>0.3354590831007256</v>
+        <v>0.3354590831007255</v>
       </c>
       <c r="P4">
-        <v>0.6176158954174237</v>
+        <v>0.6176158954174241</v>
       </c>
       <c r="Q4">
-        <v>8.094520910305796</v>
+        <v>8.094520910305773</v>
       </c>
       <c r="R4">
         <v>-117.024883745212</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7463003081378664</v>
+        <v>0.7463003081378666</v>
       </c>
       <c r="O5">
-        <v>0.335459083108601</v>
+        <v>0.3354590831086007</v>
       </c>
       <c r="P5">
-        <v>0.6176158954306453</v>
+        <v>0.6176158954306458</v>
       </c>
       <c r="Q5">
-        <v>8.094520911318289</v>
+        <v>8.094520911318252</v>
       </c>
       <c r="R5">
         <v>-117.0248837415422</v>
       </c>
       <c r="S5">
-        <v>161.717650362439</v>
+        <v>161.7176503624389</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7463003081378664</v>
+        <v>0.7463003081378666</v>
       </c>
       <c r="O6">
-        <v>0.3354590831086013</v>
+        <v>0.3354590831086007</v>
       </c>
       <c r="P6">
-        <v>0.6176158954306454</v>
+        <v>0.6176158954306458</v>
       </c>
       <c r="Q6">
-        <v>8.094520911318281</v>
+        <v>8.094520911318252</v>
       </c>
       <c r="R6">
         <v>-117.0248837415422</v>
@@ -10505,10 +10505,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.545454803106412</v>
+        <v>4.545454803106413</v>
       </c>
       <c r="D2">
-        <v>4.545454803106412</v>
+        <v>4.545454803106413</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -10526,13 +10526,13 @@
         <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.32439447418576</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
         <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394474104236</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
         <v>13.24394453563988</v>
@@ -10544,10 +10544,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.692679414161542E-11</v>
+        <v>-8.693790336816503E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279646671956</v>
+        <v>0.9526279646671957</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965611</v>
+        <v>0.9526279648965605</v>
       </c>
       <c r="Q3">
-        <v>1.457819991245676E-10</v>
+        <v>1.457670556294343E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10656,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279646404243</v>
+        <v>0.9526279646404247</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233322</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>1.564906685982061E-09</v>
+        <v>1.564886915096744E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315003</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322559</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q5">
-        <v>2.037946790919374E-09</v>
+        <v>2.037927840950435E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999979535</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315003</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322561</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q6">
-        <v>2.03794678975963E-09</v>
+        <v>2.037927840950435E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999979535</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
